--- a/summary_file_FY2022.xlsx
+++ b/summary_file_FY2022.xlsx
@@ -10154,7 +10154,7 @@
         <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>214.77122968</v>
+        <v>214.63756286</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
@@ -10171,7 +10171,7 @@
         <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>73.50042594</v>
+        <v>73.17254781</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
@@ -10188,7 +10188,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>423.60951816</v>
+        <v>354.36747264</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -10222,7 +10222,7 @@
         <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>463.81618836</v>
+        <v>462.72549635</v>
       </c>
       <c r="E6" t="s">
         <v>60</v>
@@ -10239,7 +10239,7 @@
         <v>61</v>
       </c>
       <c r="D7" t="n">
-        <v>194.89239396</v>
+        <v>191.8757397</v>
       </c>
       <c r="E7" t="s">
         <v>62</v>
@@ -10256,7 +10256,7 @@
         <v>63</v>
       </c>
       <c r="D8" t="n">
-        <v>958.59698947</v>
+        <v>957.62600712</v>
       </c>
       <c r="E8" t="s">
         <v>64</v>
@@ -10273,7 +10273,7 @@
         <v>65</v>
       </c>
       <c r="D9" t="n">
-        <v>175.75534396</v>
+        <v>166.48703688</v>
       </c>
       <c r="E9" t="s">
         <v>66</v>
@@ -10290,7 +10290,7 @@
         <v>67</v>
       </c>
       <c r="D10" t="n">
-        <v>3888.56894046</v>
+        <v>3881.0391265</v>
       </c>
       <c r="E10" t="s">
         <v>68</v>
@@ -10324,7 +10324,7 @@
         <v>71</v>
       </c>
       <c r="D12" t="n">
-        <v>158.4044241</v>
+        <v>157.6013926</v>
       </c>
       <c r="E12" t="s">
         <v>72</v>
@@ -10341,7 +10341,7 @@
         <v>73</v>
       </c>
       <c r="D13" t="n">
-        <v>414.24776431</v>
+        <v>411.79687558</v>
       </c>
       <c r="E13" t="s">
         <v>74</v>
@@ -10358,7 +10358,7 @@
         <v>75</v>
       </c>
       <c r="D14" t="n">
-        <v>1957.48413827</v>
+        <v>1956.82215108</v>
       </c>
       <c r="E14" t="s">
         <v>76</v>
@@ -10375,7 +10375,7 @@
         <v>77</v>
       </c>
       <c r="D15" t="n">
-        <v>307.81796487</v>
+        <v>305.30597048</v>
       </c>
       <c r="E15" t="s">
         <v>78</v>
@@ -10409,7 +10409,7 @@
         <v>81</v>
       </c>
       <c r="D17" t="n">
-        <v>284.52044905</v>
+        <v>284.51382084</v>
       </c>
       <c r="E17" t="s">
         <v>82</v>
@@ -10426,7 +10426,7 @@
         <v>83</v>
       </c>
       <c r="D18" t="n">
-        <v>481.27197435</v>
+        <v>479.98044302</v>
       </c>
       <c r="E18" t="s">
         <v>84</v>
@@ -10460,7 +10460,7 @@
         <v>87</v>
       </c>
       <c r="D20" t="n">
-        <v>262.75819552</v>
+        <v>262.71113502</v>
       </c>
       <c r="E20" t="s">
         <v>88</v>
@@ -10477,7 +10477,7 @@
         <v>89</v>
       </c>
       <c r="D21" t="n">
-        <v>399.14064777</v>
+        <v>398.39766266</v>
       </c>
       <c r="E21" t="s">
         <v>90</v>
@@ -10494,7 +10494,7 @@
         <v>91</v>
       </c>
       <c r="D22" t="n">
-        <v>426.30459976</v>
+        <v>424.43963431</v>
       </c>
       <c r="E22" t="s">
         <v>92</v>
@@ -10511,7 +10511,7 @@
         <v>93</v>
       </c>
       <c r="D23" t="n">
-        <v>149.87525119</v>
+        <v>143.46135636</v>
       </c>
       <c r="E23" t="s">
         <v>94</v>
@@ -10545,7 +10545,7 @@
         <v>97</v>
       </c>
       <c r="D25" t="n">
-        <v>256.16808825</v>
+        <v>255.87192648</v>
       </c>
       <c r="E25" t="s">
         <v>98</v>
@@ -10562,7 +10562,7 @@
         <v>99</v>
       </c>
       <c r="D26" t="n">
-        <v>397.04004947</v>
+        <v>395.81537621</v>
       </c>
       <c r="E26" t="s">
         <v>100</v>
@@ -10579,7 +10579,7 @@
         <v>101</v>
       </c>
       <c r="D27" t="n">
-        <v>92.4535496</v>
+        <v>92.133555</v>
       </c>
       <c r="E27" t="s">
         <v>102</v>
@@ -10596,7 +10596,7 @@
         <v>103</v>
       </c>
       <c r="D28" t="n">
-        <v>5070.08825704</v>
+        <v>5068.57786781</v>
       </c>
       <c r="E28" t="s">
         <v>104</v>
@@ -10613,7 +10613,7 @@
         <v>105</v>
       </c>
       <c r="D29" t="n">
-        <v>1315.19964109</v>
+        <v>1315.19618869</v>
       </c>
       <c r="E29" t="s">
         <v>106</v>
@@ -10698,7 +10698,7 @@
         <v>51</v>
       </c>
       <c r="D34" t="n">
-        <v>235.903034</v>
+        <v>235.76064824</v>
       </c>
       <c r="E34" t="s">
         <v>52</v>
@@ -10715,7 +10715,7 @@
         <v>53</v>
       </c>
       <c r="D35" t="n">
-        <v>88.21554232</v>
+        <v>87.70510555</v>
       </c>
       <c r="E35" t="s">
         <v>54</v>
@@ -10732,7 +10732,7 @@
         <v>55</v>
       </c>
       <c r="D36" t="n">
-        <v>469.5168776</v>
+        <v>395.81449327</v>
       </c>
       <c r="E36" t="s">
         <v>56</v>
@@ -10766,7 +10766,7 @@
         <v>59</v>
       </c>
       <c r="D38" t="n">
-        <v>524.14816484</v>
+        <v>522.97681727</v>
       </c>
       <c r="E38" t="s">
         <v>60</v>
@@ -10783,7 +10783,7 @@
         <v>61</v>
       </c>
       <c r="D39" t="n">
-        <v>231.22826156</v>
+        <v>228.03079775</v>
       </c>
       <c r="E39" t="s">
         <v>62</v>
@@ -10800,7 +10800,7 @@
         <v>63</v>
       </c>
       <c r="D40" t="n">
-        <v>1045.72673118</v>
+        <v>1044.70465463</v>
       </c>
       <c r="E40" t="s">
         <v>64</v>
@@ -10817,7 +10817,7 @@
         <v>65</v>
       </c>
       <c r="D41" t="n">
-        <v>176.34769749</v>
+        <v>166.20035259</v>
       </c>
       <c r="E41" t="s">
         <v>66</v>
@@ -10834,7 +10834,7 @@
         <v>67</v>
       </c>
       <c r="D42" t="n">
-        <v>4060.46001916</v>
+        <v>4052.75016329</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
@@ -10851,7 +10851,7 @@
         <v>69</v>
       </c>
       <c r="D43" t="n">
-        <v>114.69215114</v>
+        <v>114.25793077</v>
       </c>
       <c r="E43" t="s">
         <v>70</v>
@@ -10868,7 +10868,7 @@
         <v>71</v>
       </c>
       <c r="D44" t="n">
-        <v>165.10762511</v>
+        <v>164.0231641</v>
       </c>
       <c r="E44" t="s">
         <v>72</v>
@@ -10885,7 +10885,7 @@
         <v>73</v>
       </c>
       <c r="D45" t="n">
-        <v>432.70418227</v>
+        <v>430.03482784</v>
       </c>
       <c r="E45" t="s">
         <v>74</v>
@@ -10902,7 +10902,7 @@
         <v>75</v>
       </c>
       <c r="D46" t="n">
-        <v>1864.90618631</v>
+        <v>1864.18286306</v>
       </c>
       <c r="E46" t="s">
         <v>76</v>
@@ -10919,7 +10919,7 @@
         <v>77</v>
       </c>
       <c r="D47" t="n">
-        <v>316.94037436</v>
+        <v>314.35296047</v>
       </c>
       <c r="E47" t="s">
         <v>78</v>
@@ -10953,7 +10953,7 @@
         <v>81</v>
       </c>
       <c r="D49" t="n">
-        <v>304.96685668</v>
+        <v>304.95743214</v>
       </c>
       <c r="E49" t="s">
         <v>82</v>
@@ -10970,7 +10970,7 @@
         <v>83</v>
       </c>
       <c r="D50" t="n">
-        <v>489.48326191</v>
+        <v>488.03930302</v>
       </c>
       <c r="E50" t="s">
         <v>84</v>
@@ -11004,7 +11004,7 @@
         <v>87</v>
       </c>
       <c r="D52" t="n">
-        <v>289.35690238</v>
+        <v>289.3037928</v>
       </c>
       <c r="E52" t="s">
         <v>88</v>
@@ -11021,7 +11021,7 @@
         <v>89</v>
       </c>
       <c r="D53" t="n">
-        <v>427.05080712</v>
+        <v>426.21085228</v>
       </c>
       <c r="E53" t="s">
         <v>90</v>
@@ -11038,7 +11038,7 @@
         <v>91</v>
       </c>
       <c r="D54" t="n">
-        <v>446.14314328</v>
+        <v>444.18016321</v>
       </c>
       <c r="E54" t="s">
         <v>92</v>
@@ -11055,7 +11055,7 @@
         <v>93</v>
       </c>
       <c r="D55" t="n">
-        <v>160.54919709</v>
+        <v>153.48327277</v>
       </c>
       <c r="E55" t="s">
         <v>94</v>
@@ -11089,7 +11089,7 @@
         <v>97</v>
       </c>
       <c r="D57" t="n">
-        <v>399.97357301</v>
+        <v>399.66740317</v>
       </c>
       <c r="E57" t="s">
         <v>98</v>
@@ -11106,7 +11106,7 @@
         <v>99</v>
       </c>
       <c r="D58" t="n">
-        <v>371.63682897</v>
+        <v>370.25271891</v>
       </c>
       <c r="E58" t="s">
         <v>100</v>
@@ -11123,7 +11123,7 @@
         <v>101</v>
       </c>
       <c r="D59" t="n">
-        <v>104.39273953</v>
+        <v>104.04246454</v>
       </c>
       <c r="E59" t="s">
         <v>102</v>
@@ -11140,7 +11140,7 @@
         <v>103</v>
       </c>
       <c r="D60" t="n">
-        <v>5589.44415928</v>
+        <v>5587.95165286</v>
       </c>
       <c r="E60" t="s">
         <v>104</v>
@@ -11157,7 +11157,7 @@
         <v>105</v>
       </c>
       <c r="D61" t="n">
-        <v>1390.77219844</v>
+        <v>1390.7676231</v>
       </c>
       <c r="E61" t="s">
         <v>106</v>
@@ -11242,7 +11242,7 @@
         <v>51</v>
       </c>
       <c r="D66" t="n">
-        <v>260.62614194</v>
+        <v>260.46301445</v>
       </c>
       <c r="E66" t="s">
         <v>52</v>
@@ -11259,7 +11259,7 @@
         <v>53</v>
       </c>
       <c r="D67" t="n">
-        <v>103.06928779</v>
+        <v>102.49970773</v>
       </c>
       <c r="E67" t="s">
         <v>54</v>
@@ -11276,7 +11276,7 @@
         <v>55</v>
       </c>
       <c r="D68" t="n">
-        <v>483.39344233</v>
+        <v>405.94840276</v>
       </c>
       <c r="E68" t="s">
         <v>56</v>
@@ -11310,7 +11310,7 @@
         <v>59</v>
       </c>
       <c r="D70" t="n">
-        <v>704.64145185</v>
+        <v>703.39412147</v>
       </c>
       <c r="E70" t="s">
         <v>60</v>
@@ -11327,7 +11327,7 @@
         <v>61</v>
       </c>
       <c r="D71" t="n">
-        <v>271.14357793</v>
+        <v>267.74142254</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -11344,7 +11344,7 @@
         <v>63</v>
       </c>
       <c r="D72" t="n">
-        <v>1127.06701218</v>
+        <v>1125.8742196</v>
       </c>
       <c r="E72" t="s">
         <v>64</v>
@@ -11361,7 +11361,7 @@
         <v>65</v>
       </c>
       <c r="D73" t="n">
-        <v>180.8863797</v>
+        <v>169.78550222</v>
       </c>
       <c r="E73" t="s">
         <v>66</v>
@@ -11378,7 +11378,7 @@
         <v>67</v>
       </c>
       <c r="D74" t="n">
-        <v>4167.30296195</v>
+        <v>4158.55775531</v>
       </c>
       <c r="E74" t="s">
         <v>68</v>
@@ -11395,7 +11395,7 @@
         <v>69</v>
       </c>
       <c r="D75" t="n">
-        <v>134.93282343</v>
+        <v>134.42238038</v>
       </c>
       <c r="E75" t="s">
         <v>70</v>
@@ -11412,7 +11412,7 @@
         <v>71</v>
       </c>
       <c r="D76" t="n">
-        <v>180.3928623</v>
+        <v>179.20809762</v>
       </c>
       <c r="E76" t="s">
         <v>72</v>
@@ -11429,7 +11429,7 @@
         <v>73</v>
       </c>
       <c r="D77" t="n">
-        <v>438.01481872</v>
+        <v>435.0732464</v>
       </c>
       <c r="E77" t="s">
         <v>74</v>
@@ -11446,7 +11446,7 @@
         <v>75</v>
       </c>
       <c r="D78" t="n">
-        <v>2448.11467302</v>
+        <v>2447.32965448</v>
       </c>
       <c r="E78" t="s">
         <v>76</v>
@@ -11463,7 +11463,7 @@
         <v>77</v>
       </c>
       <c r="D79" t="n">
-        <v>355.48955874</v>
+        <v>352.45949773</v>
       </c>
       <c r="E79" t="s">
         <v>78</v>
@@ -11514,7 +11514,7 @@
         <v>83</v>
       </c>
       <c r="D82" t="n">
-        <v>503.72963244</v>
+        <v>502.16135957</v>
       </c>
       <c r="E82" t="s">
         <v>84</v>
@@ -11548,7 +11548,7 @@
         <v>87</v>
       </c>
       <c r="D84" t="n">
-        <v>325.18163279</v>
+        <v>325.14102676</v>
       </c>
       <c r="E84" t="s">
         <v>88</v>
@@ -11565,7 +11565,7 @@
         <v>89</v>
       </c>
       <c r="D85" t="n">
-        <v>471.47725894</v>
+        <v>470.35691788</v>
       </c>
       <c r="E85" t="s">
         <v>90</v>
@@ -11582,7 +11582,7 @@
         <v>91</v>
       </c>
       <c r="D86" t="n">
-        <v>469.34207338</v>
+        <v>467.11916495</v>
       </c>
       <c r="E86" t="s">
         <v>92</v>
@@ -11599,7 +11599,7 @@
         <v>93</v>
       </c>
       <c r="D87" t="n">
-        <v>131.47646284</v>
+        <v>123.88585859</v>
       </c>
       <c r="E87" t="s">
         <v>94</v>
@@ -11633,7 +11633,7 @@
         <v>97</v>
       </c>
       <c r="D89" t="n">
-        <v>828.46299369</v>
+        <v>828.09201611</v>
       </c>
       <c r="E89" t="s">
         <v>98</v>
@@ -11650,7 +11650,7 @@
         <v>99</v>
       </c>
       <c r="D90" t="n">
-        <v>376.04716161</v>
+        <v>374.49925322</v>
       </c>
       <c r="E90" t="s">
         <v>100</v>
@@ -11667,7 +11667,7 @@
         <v>101</v>
       </c>
       <c r="D91" t="n">
-        <v>129.04312993</v>
+        <v>128.63143751</v>
       </c>
       <c r="E91" t="s">
         <v>102</v>
@@ -11684,7 +11684,7 @@
         <v>103</v>
       </c>
       <c r="D92" t="n">
-        <v>6026.2937197</v>
+        <v>6024.68928772</v>
       </c>
       <c r="E92" t="s">
         <v>104</v>
@@ -11701,7 +11701,7 @@
         <v>105</v>
       </c>
       <c r="D93" t="n">
-        <v>1468.73932739</v>
+        <v>1468.73355555</v>
       </c>
       <c r="E93" t="s">
         <v>106</v>
@@ -11786,7 +11786,7 @@
         <v>51</v>
       </c>
       <c r="D98" t="n">
-        <v>283.86681541</v>
+        <v>283.68080366</v>
       </c>
       <c r="E98" t="s">
         <v>52</v>
@@ -11803,7 +11803,7 @@
         <v>53</v>
       </c>
       <c r="D99" t="n">
-        <v>113.71194993</v>
+        <v>112.95363308</v>
       </c>
       <c r="E99" t="s">
         <v>54</v>
@@ -11820,7 +11820,7 @@
         <v>55</v>
       </c>
       <c r="D100" t="n">
-        <v>489.33116483</v>
+        <v>404.85235768</v>
       </c>
       <c r="E100" t="s">
         <v>56</v>
@@ -11854,7 +11854,7 @@
         <v>59</v>
       </c>
       <c r="D102" t="n">
-        <v>763.42163682</v>
+        <v>762.44954307</v>
       </c>
       <c r="E102" t="s">
         <v>60</v>
@@ -11871,7 +11871,7 @@
         <v>61</v>
       </c>
       <c r="D103" t="n">
-        <v>311.92955897</v>
+        <v>307.90273672</v>
       </c>
       <c r="E103" t="s">
         <v>62</v>
@@ -11888,7 +11888,7 @@
         <v>63</v>
       </c>
       <c r="D104" t="n">
-        <v>1201.67905289</v>
+        <v>1200.02646258</v>
       </c>
       <c r="E104" t="s">
         <v>64</v>
@@ -11905,7 +11905,7 @@
         <v>65</v>
       </c>
       <c r="D105" t="n">
-        <v>282.39225598</v>
+        <v>268.96628977</v>
       </c>
       <c r="E105" t="s">
         <v>66</v>
@@ -11922,7 +11922,7 @@
         <v>67</v>
       </c>
       <c r="D106" t="n">
-        <v>4484.10337656</v>
+        <v>4473.46502428</v>
       </c>
       <c r="E106" t="s">
         <v>68</v>
@@ -11939,7 +11939,7 @@
         <v>69</v>
       </c>
       <c r="D107" t="n">
-        <v>133.86301818</v>
+        <v>133.23362921</v>
       </c>
       <c r="E107" t="s">
         <v>70</v>
@@ -11956,7 +11956,7 @@
         <v>71</v>
       </c>
       <c r="D108" t="n">
-        <v>222.12913584</v>
+        <v>220.51266446</v>
       </c>
       <c r="E108" t="s">
         <v>72</v>
@@ -11973,7 +11973,7 @@
         <v>73</v>
       </c>
       <c r="D109" t="n">
-        <v>798.1166298</v>
+        <v>794.51021791</v>
       </c>
       <c r="E109" t="s">
         <v>74</v>
@@ -11990,7 +11990,7 @@
         <v>75</v>
       </c>
       <c r="D110" t="n">
-        <v>2683.11550823</v>
+        <v>2682.18711994</v>
       </c>
       <c r="E110" t="s">
         <v>76</v>
@@ -12007,7 +12007,7 @@
         <v>77</v>
       </c>
       <c r="D111" t="n">
-        <v>389.15989298</v>
+        <v>385.50181825</v>
       </c>
       <c r="E111" t="s">
         <v>78</v>
@@ -12058,7 +12058,7 @@
         <v>83</v>
       </c>
       <c r="D114" t="n">
-        <v>547.55653672</v>
+        <v>545.62205635</v>
       </c>
       <c r="E114" t="s">
         <v>84</v>
@@ -12092,7 +12092,7 @@
         <v>87</v>
       </c>
       <c r="D116" t="n">
-        <v>335.15047582</v>
+        <v>335.08849643</v>
       </c>
       <c r="E116" t="s">
         <v>88</v>
@@ -12109,7 +12109,7 @@
         <v>89</v>
       </c>
       <c r="D117" t="n">
-        <v>539.76806497</v>
+        <v>538.31590789</v>
       </c>
       <c r="E117" t="s">
         <v>90</v>
@@ -12126,7 +12126,7 @@
         <v>91</v>
       </c>
       <c r="D118" t="n">
-        <v>491.32241862</v>
+        <v>488.58809466</v>
       </c>
       <c r="E118" t="s">
         <v>92</v>
@@ -12143,7 +12143,7 @@
         <v>93</v>
       </c>
       <c r="D119" t="n">
-        <v>139.41899584</v>
+        <v>130.13711477</v>
       </c>
       <c r="E119" t="s">
         <v>94</v>
@@ -12177,7 +12177,7 @@
         <v>97</v>
       </c>
       <c r="D121" t="n">
-        <v>890.31182376</v>
+        <v>889.81009617</v>
       </c>
       <c r="E121" t="s">
         <v>98</v>
@@ -12194,7 +12194,7 @@
         <v>99</v>
       </c>
       <c r="D122" t="n">
-        <v>382.68138056</v>
+        <v>380.87622765</v>
       </c>
       <c r="E122" t="s">
         <v>100</v>
@@ -12211,7 +12211,7 @@
         <v>101</v>
       </c>
       <c r="D123" t="n">
-        <v>137.58000557</v>
+        <v>136.47128941</v>
       </c>
       <c r="E123" t="s">
         <v>102</v>
@@ -12228,7 +12228,7 @@
         <v>103</v>
       </c>
       <c r="D124" t="n">
-        <v>6391.72170938</v>
+        <v>6389.90990117</v>
       </c>
       <c r="E124" t="s">
         <v>104</v>
@@ -12245,7 +12245,7 @@
         <v>105</v>
       </c>
       <c r="D125" t="n">
-        <v>1550.45837555</v>
+        <v>1550.45408864</v>
       </c>
       <c r="E125" t="s">
         <v>106</v>
@@ -12330,7 +12330,7 @@
         <v>51</v>
       </c>
       <c r="D130" t="n">
-        <v>297.38686848</v>
+        <v>297.14336793</v>
       </c>
       <c r="E130" t="s">
         <v>52</v>
@@ -12347,7 +12347,7 @@
         <v>53</v>
       </c>
       <c r="D131" t="n">
-        <v>114.46288658</v>
+        <v>113.70769596</v>
       </c>
       <c r="E131" t="s">
         <v>54</v>
@@ -12364,7 +12364,7 @@
         <v>55</v>
       </c>
       <c r="D132" t="n">
-        <v>485.2488773</v>
+        <v>393.54316003</v>
       </c>
       <c r="E132" t="s">
         <v>56</v>
@@ -12398,7 +12398,7 @@
         <v>59</v>
       </c>
       <c r="D134" t="n">
-        <v>811.33504932</v>
+        <v>810.14399763</v>
       </c>
       <c r="E134" t="s">
         <v>60</v>
@@ -12415,7 +12415,7 @@
         <v>61</v>
       </c>
       <c r="D135" t="n">
-        <v>352.02856152</v>
+        <v>347.36594428</v>
       </c>
       <c r="E135" t="s">
         <v>62</v>
@@ -12432,7 +12432,7 @@
         <v>63</v>
       </c>
       <c r="D136" t="n">
-        <v>1257.93671002</v>
+        <v>1256.16378613</v>
       </c>
       <c r="E136" t="s">
         <v>64</v>
@@ -12449,7 +12449,7 @@
         <v>65</v>
       </c>
       <c r="D137" t="n">
-        <v>340.08747237</v>
+        <v>324.26630034</v>
       </c>
       <c r="E137" t="s">
         <v>66</v>
@@ -12466,7 +12466,7 @@
         <v>67</v>
       </c>
       <c r="D138" t="n">
-        <v>4495.54198616</v>
+        <v>4482.8400892</v>
       </c>
       <c r="E138" t="s">
         <v>68</v>
@@ -12483,7 +12483,7 @@
         <v>69</v>
       </c>
       <c r="D139" t="n">
-        <v>140.61213986</v>
+        <v>139.49686972</v>
       </c>
       <c r="E139" t="s">
         <v>70</v>
@@ -12500,7 +12500,7 @@
         <v>71</v>
       </c>
       <c r="D140" t="n">
-        <v>265.6472456</v>
+        <v>263.80997734</v>
       </c>
       <c r="E140" t="s">
         <v>72</v>
@@ -12517,7 +12517,7 @@
         <v>73</v>
       </c>
       <c r="D141" t="n">
-        <v>663.82363314</v>
+        <v>659.38180606</v>
       </c>
       <c r="E141" t="s">
         <v>74</v>
@@ -12534,7 +12534,7 @@
         <v>75</v>
       </c>
       <c r="D142" t="n">
-        <v>3187.28685106</v>
+        <v>3186.21815709</v>
       </c>
       <c r="E142" t="s">
         <v>76</v>
@@ -12551,7 +12551,7 @@
         <v>77</v>
       </c>
       <c r="D143" t="n">
-        <v>466.59616722</v>
+        <v>462.04910009</v>
       </c>
       <c r="E143" t="s">
         <v>78</v>
@@ -12602,7 +12602,7 @@
         <v>83</v>
       </c>
       <c r="D146" t="n">
-        <v>592.71272811</v>
+        <v>590.49464255</v>
       </c>
       <c r="E146" t="s">
         <v>84</v>
@@ -12636,7 +12636,7 @@
         <v>87</v>
       </c>
       <c r="D148" t="n">
-        <v>366.72732849</v>
+        <v>366.66110568</v>
       </c>
       <c r="E148" t="s">
         <v>88</v>
@@ -12653,7 +12653,7 @@
         <v>89</v>
       </c>
       <c r="D149" t="n">
-        <v>562.37877003</v>
+        <v>560.392471</v>
       </c>
       <c r="E149" t="s">
         <v>90</v>
@@ -12670,7 +12670,7 @@
         <v>91</v>
       </c>
       <c r="D150" t="n">
-        <v>489.28525106</v>
+        <v>486.07257295</v>
       </c>
       <c r="E150" t="s">
         <v>92</v>
@@ -12687,7 +12687,7 @@
         <v>93</v>
       </c>
       <c r="D151" t="n">
-        <v>143.76825613</v>
+        <v>132.60891561</v>
       </c>
       <c r="E151" t="s">
         <v>94</v>
@@ -12721,7 +12721,7 @@
         <v>97</v>
       </c>
       <c r="D153" t="n">
-        <v>1149.63130224</v>
+        <v>1149.07148313</v>
       </c>
       <c r="E153" t="s">
         <v>98</v>
@@ -12738,7 +12738,7 @@
         <v>99</v>
       </c>
       <c r="D154" t="n">
-        <v>365.11791098</v>
+        <v>363.07480301</v>
       </c>
       <c r="E154" t="s">
         <v>100</v>
@@ -12755,7 +12755,7 @@
         <v>101</v>
       </c>
       <c r="D155" t="n">
-        <v>141.65180004</v>
+        <v>140.30384569</v>
       </c>
       <c r="E155" t="s">
         <v>102</v>
@@ -12772,7 +12772,7 @@
         <v>103</v>
       </c>
       <c r="D156" t="n">
-        <v>6631.72056955</v>
+        <v>6629.89369481</v>
       </c>
       <c r="E156" t="s">
         <v>104</v>
@@ -12789,7 +12789,7 @@
         <v>105</v>
       </c>
       <c r="D157" t="n">
-        <v>1677.93067195</v>
+        <v>1663.16964879</v>
       </c>
       <c r="E157" t="s">
         <v>106</v>
@@ -12874,7 +12874,7 @@
         <v>51</v>
       </c>
       <c r="D162" t="n">
-        <v>303.9372733</v>
+        <v>303.7034026</v>
       </c>
       <c r="E162" t="s">
         <v>52</v>
@@ -12891,7 +12891,7 @@
         <v>53</v>
       </c>
       <c r="D163" t="n">
-        <v>89.39480835</v>
+        <v>88.70322203</v>
       </c>
       <c r="E163" t="s">
         <v>54</v>
@@ -12908,7 +12908,7 @@
         <v>55</v>
       </c>
       <c r="D164" t="n">
-        <v>492.77463824</v>
+        <v>395.01338128</v>
       </c>
       <c r="E164" t="s">
         <v>56</v>
@@ -12942,7 +12942,7 @@
         <v>59</v>
       </c>
       <c r="D166" t="n">
-        <v>829.50182164</v>
+        <v>828.41999693</v>
       </c>
       <c r="E166" t="s">
         <v>60</v>
@@ -12959,7 +12959,7 @@
         <v>61</v>
       </c>
       <c r="D167" t="n">
-        <v>316.20991506</v>
+        <v>311.58915434</v>
       </c>
       <c r="E167" t="s">
         <v>62</v>
@@ -12976,7 +12976,7 @@
         <v>63</v>
       </c>
       <c r="D168" t="n">
-        <v>1173.44398945</v>
+        <v>1171.9799199</v>
       </c>
       <c r="E168" t="s">
         <v>64</v>
@@ -12993,7 +12993,7 @@
         <v>65</v>
       </c>
       <c r="D169" t="n">
-        <v>377.17937207</v>
+        <v>361.70476579</v>
       </c>
       <c r="E169" t="s">
         <v>66</v>
@@ -13010,7 +13010,7 @@
         <v>67</v>
       </c>
       <c r="D170" t="n">
-        <v>4410.23100287</v>
+        <v>4398.8164139</v>
       </c>
       <c r="E170" t="s">
         <v>68</v>
@@ -13027,7 +13027,7 @@
         <v>69</v>
       </c>
       <c r="D171" t="n">
-        <v>297.952754</v>
+        <v>287.89512524</v>
       </c>
       <c r="E171" t="s">
         <v>70</v>
@@ -13044,7 +13044,7 @@
         <v>71</v>
       </c>
       <c r="D172" t="n">
-        <v>241.49119933</v>
+        <v>239.82456133</v>
       </c>
       <c r="E172" t="s">
         <v>72</v>
@@ -13061,7 +13061,7 @@
         <v>73</v>
       </c>
       <c r="D173" t="n">
-        <v>524.9761298</v>
+        <v>520.66951675</v>
       </c>
       <c r="E173" t="s">
         <v>74</v>
@@ -13078,7 +13078,7 @@
         <v>75</v>
       </c>
       <c r="D174" t="n">
-        <v>3256.09034136</v>
+        <v>3254.99908415</v>
       </c>
       <c r="E174" t="s">
         <v>76</v>
@@ -13095,7 +13095,7 @@
         <v>77</v>
       </c>
       <c r="D175" t="n">
-        <v>463.18215679</v>
+        <v>458.71481694</v>
       </c>
       <c r="E175" t="s">
         <v>78</v>
@@ -13146,7 +13146,7 @@
         <v>83</v>
       </c>
       <c r="D178" t="n">
-        <v>581.9189684</v>
+        <v>579.62356215</v>
       </c>
       <c r="E178" t="s">
         <v>84</v>
@@ -13180,7 +13180,7 @@
         <v>87</v>
       </c>
       <c r="D180" t="n">
-        <v>360.6980244</v>
+        <v>360.61540083</v>
       </c>
       <c r="E180" t="s">
         <v>88</v>
@@ -13197,7 +13197,7 @@
         <v>89</v>
       </c>
       <c r="D181" t="n">
-        <v>543.53252946</v>
+        <v>541.50319927</v>
       </c>
       <c r="E181" t="s">
         <v>90</v>
@@ -13214,7 +13214,7 @@
         <v>91</v>
       </c>
       <c r="D182" t="n">
-        <v>502.22038373</v>
+        <v>499.06759969</v>
       </c>
       <c r="E182" t="s">
         <v>92</v>
@@ -13231,7 +13231,7 @@
         <v>93</v>
       </c>
       <c r="D183" t="n">
-        <v>142.30899353</v>
+        <v>131.28310406</v>
       </c>
       <c r="E183" t="s">
         <v>94</v>
@@ -13265,7 +13265,7 @@
         <v>97</v>
       </c>
       <c r="D185" t="n">
-        <v>1075.84106993</v>
+        <v>1075.28928835</v>
       </c>
       <c r="E185" t="s">
         <v>98</v>
@@ -13282,7 +13282,7 @@
         <v>99</v>
       </c>
       <c r="D186" t="n">
-        <v>370.89420545</v>
+        <v>365.9401367</v>
       </c>
       <c r="E186" t="s">
         <v>100</v>
@@ -13299,7 +13299,7 @@
         <v>101</v>
       </c>
       <c r="D187" t="n">
-        <v>90.14081893</v>
+        <v>88.79294982</v>
       </c>
       <c r="E187" t="s">
         <v>102</v>
@@ -13316,7 +13316,7 @@
         <v>103</v>
       </c>
       <c r="D188" t="n">
-        <v>6692.48717531</v>
+        <v>6690.74151538</v>
       </c>
       <c r="E188" t="s">
         <v>104</v>
@@ -13333,7 +13333,7 @@
         <v>105</v>
       </c>
       <c r="D189" t="n">
-        <v>1569.53522315</v>
+        <v>1554.78142315</v>
       </c>
       <c r="E189" t="s">
         <v>106</v>
@@ -13418,7 +13418,7 @@
         <v>51</v>
       </c>
       <c r="D194" t="n">
-        <v>313.84670726</v>
+        <v>313.57354663</v>
       </c>
       <c r="E194" t="s">
         <v>52</v>
@@ -13435,7 +13435,7 @@
         <v>53</v>
       </c>
       <c r="D195" t="n">
-        <v>81.24777873</v>
+        <v>80.44436889</v>
       </c>
       <c r="E195" t="s">
         <v>54</v>
@@ -13452,7 +13452,7 @@
         <v>55</v>
       </c>
       <c r="D196" t="n">
-        <v>579.1402208</v>
+        <v>474.50090681</v>
       </c>
       <c r="E196" t="s">
         <v>56</v>
@@ -13486,7 +13486,7 @@
         <v>59</v>
       </c>
       <c r="D198" t="n">
-        <v>925.89575148</v>
+        <v>924.29603044</v>
       </c>
       <c r="E198" t="s">
         <v>60</v>
@@ -13503,7 +13503,7 @@
         <v>61</v>
       </c>
       <c r="D199" t="n">
-        <v>275.85093077</v>
+        <v>270.59259334</v>
       </c>
       <c r="E199" t="s">
         <v>62</v>
@@ -13520,7 +13520,7 @@
         <v>63</v>
       </c>
       <c r="D200" t="n">
-        <v>1195.33124447</v>
+        <v>1193.81497047</v>
       </c>
       <c r="E200" t="s">
         <v>64</v>
@@ -13537,7 +13537,7 @@
         <v>65</v>
       </c>
       <c r="D201" t="n">
-        <v>207.6243794</v>
+        <v>191.05200681</v>
       </c>
       <c r="E201" t="s">
         <v>66</v>
@@ -13554,7 +13554,7 @@
         <v>67</v>
       </c>
       <c r="D202" t="n">
-        <v>4599.62862316</v>
+        <v>4586.18950541</v>
       </c>
       <c r="E202" t="s">
         <v>68</v>
@@ -13571,7 +13571,7 @@
         <v>69</v>
       </c>
       <c r="D203" t="n">
-        <v>288.24236038</v>
+        <v>277.12349024</v>
       </c>
       <c r="E203" t="s">
         <v>70</v>
@@ -13588,7 +13588,7 @@
         <v>71</v>
       </c>
       <c r="D204" t="n">
-        <v>264.28352049</v>
+        <v>262.38169694</v>
       </c>
       <c r="E204" t="s">
         <v>72</v>
@@ -13605,7 +13605,7 @@
         <v>73</v>
       </c>
       <c r="D205" t="n">
-        <v>796.13050065</v>
+        <v>788.50059595</v>
       </c>
       <c r="E205" t="s">
         <v>74</v>
@@ -13622,7 +13622,7 @@
         <v>75</v>
       </c>
       <c r="D206" t="n">
-        <v>2971.58746131</v>
+        <v>2970.4848546</v>
       </c>
       <c r="E206" t="s">
         <v>76</v>
@@ -13639,7 +13639,7 @@
         <v>77</v>
       </c>
       <c r="D207" t="n">
-        <v>560.91563637</v>
+        <v>555.02303256</v>
       </c>
       <c r="E207" t="s">
         <v>78</v>
@@ -13690,7 +13690,7 @@
         <v>83</v>
       </c>
       <c r="D210" t="n">
-        <v>560.42920581</v>
+        <v>557.83212891</v>
       </c>
       <c r="E210" t="s">
         <v>84</v>
@@ -13724,7 +13724,7 @@
         <v>87</v>
       </c>
       <c r="D212" t="n">
-        <v>355.85573671</v>
+        <v>355.78589264</v>
       </c>
       <c r="E212" t="s">
         <v>88</v>
@@ -13741,7 +13741,7 @@
         <v>89</v>
       </c>
       <c r="D213" t="n">
-        <v>514.84903766</v>
+        <v>512.84672605</v>
       </c>
       <c r="E213" t="s">
         <v>90</v>
@@ -13758,7 +13758,7 @@
         <v>91</v>
       </c>
       <c r="D214" t="n">
-        <v>473.33190696</v>
+        <v>469.60426466</v>
       </c>
       <c r="E214" t="s">
         <v>92</v>
@@ -13775,7 +13775,7 @@
         <v>93</v>
       </c>
       <c r="D215" t="n">
-        <v>133.90031469</v>
+        <v>122.04270611</v>
       </c>
       <c r="E215" t="s">
         <v>94</v>
@@ -13809,7 +13809,7 @@
         <v>97</v>
       </c>
       <c r="D217" t="n">
-        <v>833.46807446</v>
+        <v>832.11381244</v>
       </c>
       <c r="E217" t="s">
         <v>98</v>
@@ -13826,7 +13826,7 @@
         <v>99</v>
       </c>
       <c r="D218" t="n">
-        <v>92.13557883</v>
+        <v>88.7661099</v>
       </c>
       <c r="E218" t="s">
         <v>100</v>
@@ -13843,7 +13843,7 @@
         <v>101</v>
       </c>
       <c r="D219" t="n">
-        <v>85.07983468</v>
+        <v>84.84035117</v>
       </c>
       <c r="E219" t="s">
         <v>102</v>
@@ -13860,7 +13860,7 @@
         <v>103</v>
       </c>
       <c r="D220" t="n">
-        <v>7127.60129257</v>
+        <v>7125.33512325</v>
       </c>
       <c r="E220" t="s">
         <v>104</v>
@@ -13877,7 +13877,7 @@
         <v>105</v>
       </c>
       <c r="D221" t="n">
-        <v>1441.72530187</v>
+        <v>1426.97150187</v>
       </c>
       <c r="E221" t="s">
         <v>106</v>
@@ -13962,7 +13962,7 @@
         <v>51</v>
       </c>
       <c r="D226" t="n">
-        <v>402.26486306</v>
+        <v>401.91915481</v>
       </c>
       <c r="E226" t="s">
         <v>52</v>
@@ -13979,7 +13979,7 @@
         <v>53</v>
       </c>
       <c r="D227" t="n">
-        <v>71.36042595</v>
+        <v>70.30821821</v>
       </c>
       <c r="E227" t="s">
         <v>54</v>
@@ -13996,7 +13996,7 @@
         <v>55</v>
       </c>
       <c r="D228" t="n">
-        <v>709.78172758</v>
+        <v>579.31600141</v>
       </c>
       <c r="E228" t="s">
         <v>56</v>
@@ -14030,7 +14030,7 @@
         <v>59</v>
       </c>
       <c r="D230" t="n">
-        <v>421.60696681</v>
+        <v>420.1163554</v>
       </c>
       <c r="E230" t="s">
         <v>60</v>
@@ -14047,7 +14047,7 @@
         <v>61</v>
       </c>
       <c r="D231" t="n">
-        <v>238.98210637</v>
+        <v>232.77433226</v>
       </c>
       <c r="E231" t="s">
         <v>62</v>
@@ -14064,7 +14064,7 @@
         <v>63</v>
       </c>
       <c r="D232" t="n">
-        <v>1172.78274506</v>
+        <v>1170.70493349</v>
       </c>
       <c r="E232" t="s">
         <v>64</v>
@@ -14081,7 +14081,7 @@
         <v>65</v>
       </c>
       <c r="D233" t="n">
-        <v>190.33150361</v>
+        <v>169.50501019</v>
       </c>
       <c r="E233" t="s">
         <v>66</v>
@@ -14098,7 +14098,7 @@
         <v>67</v>
       </c>
       <c r="D234" t="n">
-        <v>4687.61580896</v>
+        <v>4670.96620681</v>
       </c>
       <c r="E234" t="s">
         <v>68</v>
@@ -14115,7 +14115,7 @@
         <v>69</v>
       </c>
       <c r="D235" t="n">
-        <v>475.79135018</v>
+        <v>462.09006266</v>
       </c>
       <c r="E235" t="s">
         <v>70</v>
@@ -14132,7 +14132,7 @@
         <v>71</v>
       </c>
       <c r="D236" t="n">
-        <v>288.15293704</v>
+        <v>285.83957859</v>
       </c>
       <c r="E236" t="s">
         <v>72</v>
@@ -14149,7 +14149,7 @@
         <v>73</v>
       </c>
       <c r="D237" t="n">
-        <v>693.33928039</v>
+        <v>685.25301237</v>
       </c>
       <c r="E237" t="s">
         <v>74</v>
@@ -14166,7 +14166,7 @@
         <v>75</v>
       </c>
       <c r="D238" t="n">
-        <v>2626.02761057</v>
+        <v>2624.72550305</v>
       </c>
       <c r="E238" t="s">
         <v>76</v>
@@ -14183,7 +14183,7 @@
         <v>77</v>
       </c>
       <c r="D239" t="n">
-        <v>379.32073474</v>
+        <v>372.05375499</v>
       </c>
       <c r="E239" t="s">
         <v>78</v>
@@ -14234,7 +14234,7 @@
         <v>83</v>
       </c>
       <c r="D242" t="n">
-        <v>569.42167211</v>
+        <v>565.80138626</v>
       </c>
       <c r="E242" t="s">
         <v>84</v>
@@ -14268,7 +14268,7 @@
         <v>87</v>
       </c>
       <c r="D244" t="n">
-        <v>368.38813488</v>
+        <v>368.29189762</v>
       </c>
       <c r="E244" t="s">
         <v>88</v>
@@ -14285,7 +14285,7 @@
         <v>89</v>
       </c>
       <c r="D245" t="n">
-        <v>519.25503546</v>
+        <v>516.58099865</v>
       </c>
       <c r="E245" t="s">
         <v>90</v>
@@ -14302,7 +14302,7 @@
         <v>91</v>
       </c>
       <c r="D246" t="n">
-        <v>530.55712807</v>
+        <v>525.66157788</v>
       </c>
       <c r="E246" t="s">
         <v>92</v>
@@ -14319,7 +14319,7 @@
         <v>93</v>
       </c>
       <c r="D247" t="n">
-        <v>170.47377795</v>
+        <v>155.05394709</v>
       </c>
       <c r="E247" t="s">
         <v>94</v>
@@ -14353,7 +14353,7 @@
         <v>97</v>
       </c>
       <c r="D249" t="n">
-        <v>581.60258988</v>
+        <v>580.00019236</v>
       </c>
       <c r="E249" t="s">
         <v>98</v>
@@ -14370,7 +14370,7 @@
         <v>99</v>
       </c>
       <c r="D250" t="n">
-        <v>90.52925464</v>
+        <v>86.956387</v>
       </c>
       <c r="E250" t="s">
         <v>100</v>
@@ -14387,7 +14387,7 @@
         <v>101</v>
       </c>
       <c r="D251" t="n">
-        <v>92.09652735</v>
+        <v>91.8099754</v>
       </c>
       <c r="E251" t="s">
         <v>102</v>
@@ -14404,7 +14404,7 @@
         <v>103</v>
       </c>
       <c r="D252" t="n">
-        <v>7572.67212166</v>
+        <v>7569.85029354</v>
       </c>
       <c r="E252" t="s">
         <v>104</v>
@@ -14421,7 +14421,7 @@
         <v>105</v>
       </c>
       <c r="D253" t="n">
-        <v>1390.62419068</v>
+        <v>1353.79969068</v>
       </c>
       <c r="E253" t="s">
         <v>106</v>
@@ -14506,7 +14506,7 @@
         <v>51</v>
       </c>
       <c r="D258" t="n">
-        <v>420.41528929</v>
+        <v>420.02854989</v>
       </c>
       <c r="E258" t="s">
         <v>52</v>
@@ -14523,7 +14523,7 @@
         <v>53</v>
       </c>
       <c r="D259" t="n">
-        <v>82.08503561</v>
+        <v>81.00146229</v>
       </c>
       <c r="E259" t="s">
         <v>54</v>
@@ -14540,7 +14540,7 @@
         <v>55</v>
       </c>
       <c r="D260" t="n">
-        <v>689.36482638</v>
+        <v>671.29576445</v>
       </c>
       <c r="E260" t="s">
         <v>56</v>
@@ -14574,7 +14574,7 @@
         <v>59</v>
       </c>
       <c r="D262" t="n">
-        <v>593.88780962</v>
+        <v>592.3198015</v>
       </c>
       <c r="E262" t="s">
         <v>60</v>
@@ -14591,7 +14591,7 @@
         <v>61</v>
       </c>
       <c r="D263" t="n">
-        <v>240.90985131</v>
+        <v>233.40884428</v>
       </c>
       <c r="E263" t="s">
         <v>62</v>
@@ -14608,7 +14608,7 @@
         <v>63</v>
       </c>
       <c r="D264" t="n">
-        <v>1187.30523015</v>
+        <v>1185.02196571</v>
       </c>
       <c r="E264" t="s">
         <v>64</v>
@@ -14625,7 +14625,7 @@
         <v>65</v>
       </c>
       <c r="D265" t="n">
-        <v>200.49340141</v>
+        <v>178.82459415</v>
       </c>
       <c r="E265" t="s">
         <v>66</v>
@@ -14642,7 +14642,7 @@
         <v>67</v>
       </c>
       <c r="D266" t="n">
-        <v>4810.77716171</v>
+        <v>4793.76767211</v>
       </c>
       <c r="E266" t="s">
         <v>68</v>
@@ -14659,7 +14659,7 @@
         <v>69</v>
       </c>
       <c r="D267" t="n">
-        <v>719.92138944</v>
+        <v>579.26365503</v>
       </c>
       <c r="E267" t="s">
         <v>70</v>
@@ -14676,7 +14676,7 @@
         <v>71</v>
       </c>
       <c r="D268" t="n">
-        <v>293.31122662</v>
+        <v>290.66347905</v>
       </c>
       <c r="E268" t="s">
         <v>72</v>
@@ -14693,7 +14693,7 @@
         <v>73</v>
       </c>
       <c r="D269" t="n">
-        <v>808.02243679</v>
+        <v>799.47674742</v>
       </c>
       <c r="E269" t="s">
         <v>74</v>
@@ -14710,7 +14710,7 @@
         <v>75</v>
       </c>
       <c r="D270" t="n">
-        <v>2762.87048777</v>
+        <v>2761.47905507</v>
       </c>
       <c r="E270" t="s">
         <v>76</v>
@@ -14727,7 +14727,7 @@
         <v>77</v>
       </c>
       <c r="D271" t="n">
-        <v>376.86206382</v>
+        <v>368.47666431</v>
       </c>
       <c r="E271" t="s">
         <v>78</v>
@@ -14778,7 +14778,7 @@
         <v>83</v>
       </c>
       <c r="D274" t="n">
-        <v>602.72744502</v>
+        <v>598.23132769</v>
       </c>
       <c r="E274" t="s">
         <v>84</v>
@@ -14812,7 +14812,7 @@
         <v>87</v>
       </c>
       <c r="D276" t="n">
-        <v>334.85299816</v>
+        <v>334.75019914</v>
       </c>
       <c r="E276" t="s">
         <v>88</v>
@@ -14829,7 +14829,7 @@
         <v>89</v>
       </c>
       <c r="D277" t="n">
-        <v>578.26649111</v>
+        <v>575.26186897</v>
       </c>
       <c r="E277" t="s">
         <v>90</v>
@@ -14846,7 +14846,7 @@
         <v>91</v>
       </c>
       <c r="D278" t="n">
-        <v>599.67514171</v>
+        <v>594.51918634</v>
       </c>
       <c r="E278" t="s">
         <v>92</v>
@@ -14863,7 +14863,7 @@
         <v>93</v>
       </c>
       <c r="D279" t="n">
-        <v>178.95698656</v>
+        <v>162.49752135</v>
       </c>
       <c r="E279" t="s">
         <v>94</v>
@@ -14897,7 +14897,7 @@
         <v>97</v>
       </c>
       <c r="D281" t="n">
-        <v>492.8022843</v>
+        <v>491.23583727</v>
       </c>
       <c r="E281" t="s">
         <v>98</v>
@@ -14914,7 +14914,7 @@
         <v>99</v>
       </c>
       <c r="D282" t="n">
-        <v>93.6200782</v>
+        <v>89.93254464</v>
       </c>
       <c r="E282" t="s">
         <v>100</v>
@@ -14931,7 +14931,7 @@
         <v>101</v>
       </c>
       <c r="D283" t="n">
-        <v>159.00272721</v>
+        <v>158.65320892</v>
       </c>
       <c r="E283" t="s">
         <v>102</v>
@@ -14948,7 +14948,7 @@
         <v>103</v>
       </c>
       <c r="D284" t="n">
-        <v>7876.77796471</v>
+        <v>7873.5124768</v>
       </c>
       <c r="E284" t="s">
         <v>104</v>
@@ -14965,7 +14965,7 @@
         <v>105</v>
       </c>
       <c r="D285" t="n">
-        <v>1382.55507601</v>
+        <v>1345.21857601</v>
       </c>
       <c r="E285" t="s">
         <v>106</v>
@@ -15050,7 +15050,7 @@
         <v>51</v>
       </c>
       <c r="D290" t="n">
-        <v>488.15850059</v>
+        <v>487.79046272</v>
       </c>
       <c r="E290" t="s">
         <v>52</v>
@@ -15067,7 +15067,7 @@
         <v>53</v>
       </c>
       <c r="D291" t="n">
-        <v>83.02159876</v>
+        <v>81.85481425</v>
       </c>
       <c r="E291" t="s">
         <v>54</v>
@@ -15084,7 +15084,7 @@
         <v>55</v>
       </c>
       <c r="D292" t="n">
-        <v>709.15546934</v>
+        <v>691.19575594</v>
       </c>
       <c r="E292" t="s">
         <v>56</v>
@@ -15118,7 +15118,7 @@
         <v>59</v>
       </c>
       <c r="D294" t="n">
-        <v>598.70945498</v>
+        <v>597.05072542</v>
       </c>
       <c r="E294" t="s">
         <v>60</v>
@@ -15135,7 +15135,7 @@
         <v>61</v>
       </c>
       <c r="D295" t="n">
-        <v>261.78456206</v>
+        <v>253.6090063</v>
       </c>
       <c r="E295" t="s">
         <v>62</v>
@@ -15152,7 +15152,7 @@
         <v>63</v>
       </c>
       <c r="D296" t="n">
-        <v>1124.85810214</v>
+        <v>1122.66365369</v>
       </c>
       <c r="E296" t="s">
         <v>64</v>
@@ -15169,7 +15169,7 @@
         <v>65</v>
       </c>
       <c r="D297" t="n">
-        <v>189.15823021</v>
+        <v>168.83510996</v>
       </c>
       <c r="E297" t="s">
         <v>66</v>
@@ -15186,7 +15186,7 @@
         <v>67</v>
       </c>
       <c r="D298" t="n">
-        <v>4893.27676194</v>
+        <v>4877.16804734</v>
       </c>
       <c r="E298" t="s">
         <v>68</v>
@@ -15203,7 +15203,7 @@
         <v>69</v>
       </c>
       <c r="D299" t="n">
-        <v>675.80722333</v>
+        <v>530.85433494</v>
       </c>
       <c r="E299" t="s">
         <v>70</v>
@@ -15220,7 +15220,7 @@
         <v>71</v>
       </c>
       <c r="D300" t="n">
-        <v>325.93120524</v>
+        <v>323.39075663</v>
       </c>
       <c r="E300" t="s">
         <v>72</v>
@@ -15237,7 +15237,7 @@
         <v>73</v>
       </c>
       <c r="D301" t="n">
-        <v>825.90560671</v>
+        <v>817.90339204</v>
       </c>
       <c r="E301" t="s">
         <v>74</v>
@@ -15254,7 +15254,7 @@
         <v>75</v>
       </c>
       <c r="D302" t="n">
-        <v>3000.98608659</v>
+        <v>2999.6236827</v>
       </c>
       <c r="E302" t="s">
         <v>76</v>
@@ -15271,7 +15271,7 @@
         <v>77</v>
       </c>
       <c r="D303" t="n">
-        <v>415.50830613</v>
+        <v>407.51309031</v>
       </c>
       <c r="E303" t="s">
         <v>78</v>
@@ -15322,7 +15322,7 @@
         <v>83</v>
       </c>
       <c r="D306" t="n">
-        <v>682.1816854</v>
+        <v>678.24391575</v>
       </c>
       <c r="E306" t="s">
         <v>84</v>
@@ -15356,7 +15356,7 @@
         <v>87</v>
       </c>
       <c r="D308" t="n">
-        <v>344.75798605</v>
+        <v>344.68503409</v>
       </c>
       <c r="E308" t="s">
         <v>88</v>
@@ -15373,7 +15373,7 @@
         <v>89</v>
       </c>
       <c r="D309" t="n">
-        <v>632.25743239</v>
+        <v>629.19179649</v>
       </c>
       <c r="E309" t="s">
         <v>90</v>
@@ -15390,7 +15390,7 @@
         <v>91</v>
       </c>
       <c r="D310" t="n">
-        <v>738.96151491</v>
+        <v>734.26664271</v>
       </c>
       <c r="E310" t="s">
         <v>92</v>
@@ -15407,7 +15407,7 @@
         <v>93</v>
       </c>
       <c r="D311" t="n">
-        <v>199.83522676</v>
+        <v>184.301609</v>
       </c>
       <c r="E311" t="s">
         <v>94</v>
@@ -15441,7 +15441,7 @@
         <v>97</v>
       </c>
       <c r="D313" t="n">
-        <v>388.85284561</v>
+        <v>387.26459578</v>
       </c>
       <c r="E313" t="s">
         <v>98</v>
@@ -15458,7 +15458,7 @@
         <v>99</v>
       </c>
       <c r="D314" t="n">
-        <v>102.69416896</v>
+        <v>98.58882475</v>
       </c>
       <c r="E314" t="s">
         <v>100</v>
@@ -15475,7 +15475,7 @@
         <v>101</v>
       </c>
       <c r="D315" t="n">
-        <v>145.36909392</v>
+        <v>145.04154239</v>
       </c>
       <c r="E315" t="s">
         <v>102</v>
@@ -15492,7 +15492,7 @@
         <v>103</v>
       </c>
       <c r="D316" t="n">
-        <v>8269.43109392</v>
+        <v>8266.38115362</v>
       </c>
       <c r="E316" t="s">
         <v>104</v>
@@ -15509,7 +15509,7 @@
         <v>105</v>
       </c>
       <c r="D317" t="n">
-        <v>1401.72030237</v>
+        <v>1363.90800237</v>
       </c>
       <c r="E317" t="s">
         <v>106</v>
@@ -15594,7 +15594,7 @@
         <v>51</v>
       </c>
       <c r="D322" t="n">
-        <v>526.54908504</v>
+        <v>526.14970285</v>
       </c>
       <c r="E322" t="s">
         <v>52</v>
@@ -15611,7 +15611,7 @@
         <v>53</v>
       </c>
       <c r="D323" t="n">
-        <v>83.92208075</v>
+        <v>82.74171791</v>
       </c>
       <c r="E323" t="s">
         <v>54</v>
@@ -15628,7 +15628,7 @@
         <v>55</v>
       </c>
       <c r="D324" t="n">
-        <v>721.63208492</v>
+        <v>703.2870091</v>
       </c>
       <c r="E324" t="s">
         <v>56</v>
@@ -15662,7 +15662,7 @@
         <v>59</v>
       </c>
       <c r="D326" t="n">
-        <v>438.17461413</v>
+        <v>436.77060175</v>
       </c>
       <c r="E326" t="s">
         <v>60</v>
@@ -15679,7 +15679,7 @@
         <v>61</v>
       </c>
       <c r="D327" t="n">
-        <v>236.95390064</v>
+        <v>228.49147015</v>
       </c>
       <c r="E327" t="s">
         <v>62</v>
@@ -15696,7 +15696,7 @@
         <v>63</v>
       </c>
       <c r="D328" t="n">
-        <v>1170.37258852</v>
+        <v>1168.13495876</v>
       </c>
       <c r="E328" t="s">
         <v>64</v>
@@ -15713,7 +15713,7 @@
         <v>65</v>
       </c>
       <c r="D329" t="n">
-        <v>193.05941675</v>
+        <v>172.31954041</v>
       </c>
       <c r="E329" t="s">
         <v>66</v>
@@ -15730,7 +15730,7 @@
         <v>67</v>
       </c>
       <c r="D330" t="n">
-        <v>5104.35728531</v>
+        <v>5087.79234914</v>
       </c>
       <c r="E330" t="s">
         <v>68</v>
@@ -15747,7 +15747,7 @@
         <v>69</v>
       </c>
       <c r="D331" t="n">
-        <v>686.19588115</v>
+        <v>535.44352151</v>
       </c>
       <c r="E331" t="s">
         <v>70</v>
@@ -15764,7 +15764,7 @@
         <v>71</v>
       </c>
       <c r="D332" t="n">
-        <v>349.6181887</v>
+        <v>347.08458155</v>
       </c>
       <c r="E332" t="s">
         <v>72</v>
@@ -15781,7 +15781,7 @@
         <v>73</v>
       </c>
       <c r="D333" t="n">
-        <v>823.22153732</v>
+        <v>814.83176974</v>
       </c>
       <c r="E333" t="s">
         <v>74</v>
@@ -15798,7 +15798,7 @@
         <v>75</v>
       </c>
       <c r="D334" t="n">
-        <v>2796.8138719</v>
+        <v>2795.36627537</v>
       </c>
       <c r="E334" t="s">
         <v>76</v>
@@ -15815,7 +15815,7 @@
         <v>77</v>
       </c>
       <c r="D335" t="n">
-        <v>396.79449946</v>
+        <v>388.68495768</v>
       </c>
       <c r="E335" t="s">
         <v>78</v>
@@ -15866,7 +15866,7 @@
         <v>83</v>
       </c>
       <c r="D338" t="n">
-        <v>695.58047156</v>
+        <v>691.83865061</v>
       </c>
       <c r="E338" t="s">
         <v>84</v>
@@ -15900,7 +15900,7 @@
         <v>87</v>
       </c>
       <c r="D340" t="n">
-        <v>355.69190012</v>
+        <v>355.6000726</v>
       </c>
       <c r="E340" t="s">
         <v>88</v>
@@ -15917,7 +15917,7 @@
         <v>89</v>
       </c>
       <c r="D341" t="n">
-        <v>645.49517347</v>
+        <v>641.83924356</v>
       </c>
       <c r="E341" t="s">
         <v>90</v>
@@ -15934,7 +15934,7 @@
         <v>91</v>
       </c>
       <c r="D342" t="n">
-        <v>743.47594039</v>
+        <v>738.61685871</v>
       </c>
       <c r="E342" t="s">
         <v>92</v>
@@ -15951,7 +15951,7 @@
         <v>93</v>
       </c>
       <c r="D343" t="n">
-        <v>197.54950341</v>
+        <v>181.2123426</v>
       </c>
       <c r="E343" t="s">
         <v>94</v>
@@ -15985,7 +15985,7 @@
         <v>97</v>
       </c>
       <c r="D345" t="n">
-        <v>261.10366582</v>
+        <v>259.45409805</v>
       </c>
       <c r="E345" t="s">
         <v>98</v>
@@ -16002,7 +16002,7 @@
         <v>99</v>
       </c>
       <c r="D346" t="n">
-        <v>110.74066038</v>
+        <v>105.64061997</v>
       </c>
       <c r="E346" t="s">
         <v>100</v>
@@ -16019,7 +16019,7 @@
         <v>101</v>
       </c>
       <c r="D347" t="n">
-        <v>118.80997533</v>
+        <v>118.49545309</v>
       </c>
       <c r="E347" t="s">
         <v>102</v>
@@ -16036,7 +16036,7 @@
         <v>103</v>
       </c>
       <c r="D348" t="n">
-        <v>8877.81716739</v>
+        <v>8875.07517199</v>
       </c>
       <c r="E348" t="s">
         <v>104</v>
@@ -16053,7 +16053,7 @@
         <v>105</v>
       </c>
       <c r="D349" t="n">
-        <v>1421.04844079</v>
+        <v>1383.23614079</v>
       </c>
       <c r="E349" t="s">
         <v>106</v>
@@ -16138,7 +16138,7 @@
         <v>51</v>
       </c>
       <c r="D354" t="n">
-        <v>605.87923865</v>
+        <v>605.64713348</v>
       </c>
       <c r="E354" t="s">
         <v>52</v>
@@ -16155,7 +16155,7 @@
         <v>53</v>
       </c>
       <c r="D355" t="n">
-        <v>76.79424644</v>
+        <v>75.70649677</v>
       </c>
       <c r="E355" t="s">
         <v>54</v>
@@ -16172,7 +16172,7 @@
         <v>55</v>
       </c>
       <c r="D356" t="n">
-        <v>698.24796487</v>
+        <v>680.1902072</v>
       </c>
       <c r="E356" t="s">
         <v>56</v>
@@ -16206,7 +16206,7 @@
         <v>59</v>
       </c>
       <c r="D358" t="n">
-        <v>517.89638111</v>
+        <v>516.42724505</v>
       </c>
       <c r="E358" t="s">
         <v>60</v>
@@ -16223,7 +16223,7 @@
         <v>61</v>
       </c>
       <c r="D359" t="n">
-        <v>218.61726002</v>
+        <v>209.55044872</v>
       </c>
       <c r="E359" t="s">
         <v>62</v>
@@ -16240,7 +16240,7 @@
         <v>63</v>
       </c>
       <c r="D360" t="n">
-        <v>1219.63546087</v>
+        <v>1217.63819745</v>
       </c>
       <c r="E360" t="s">
         <v>64</v>
@@ -16257,7 +16257,7 @@
         <v>65</v>
       </c>
       <c r="D361" t="n">
-        <v>217.6414523</v>
+        <v>196.28750676</v>
       </c>
       <c r="E361" t="s">
         <v>66</v>
@@ -16274,7 +16274,7 @@
         <v>67</v>
       </c>
       <c r="D362" t="n">
-        <v>5278.75901159</v>
+        <v>5262.9505494</v>
       </c>
       <c r="E362" t="s">
         <v>68</v>
@@ -16291,7 +16291,7 @@
         <v>69</v>
       </c>
       <c r="D363" t="n">
-        <v>691.0586495</v>
+        <v>532.45891454</v>
       </c>
       <c r="E363" t="s">
         <v>70</v>
@@ -16308,7 +16308,7 @@
         <v>71</v>
       </c>
       <c r="D364" t="n">
-        <v>350.11362122</v>
+        <v>347.68627812</v>
       </c>
       <c r="E364" t="s">
         <v>72</v>
@@ -16325,7 +16325,7 @@
         <v>73</v>
       </c>
       <c r="D365" t="n">
-        <v>846.11397437</v>
+        <v>836.85433093</v>
       </c>
       <c r="E365" t="s">
         <v>74</v>
@@ -16342,7 +16342,7 @@
         <v>75</v>
       </c>
       <c r="D366" t="n">
-        <v>2991.99931869</v>
+        <v>2990.55111755</v>
       </c>
       <c r="E366" t="s">
         <v>76</v>
@@ -16359,7 +16359,7 @@
         <v>77</v>
       </c>
       <c r="D367" t="n">
-        <v>411.11934623</v>
+        <v>403.34413597</v>
       </c>
       <c r="E367" t="s">
         <v>78</v>
@@ -16410,7 +16410,7 @@
         <v>83</v>
       </c>
       <c r="D370" t="n">
-        <v>692.05585032</v>
+        <v>688.2299916</v>
       </c>
       <c r="E370" t="s">
         <v>84</v>
@@ -16444,7 +16444,7 @@
         <v>87</v>
       </c>
       <c r="D372" t="n">
-        <v>386.94904313</v>
+        <v>386.86727913</v>
       </c>
       <c r="E372" t="s">
         <v>88</v>
@@ -16461,7 +16461,7 @@
         <v>89</v>
       </c>
       <c r="D373" t="n">
-        <v>641.94901603</v>
+        <v>638.93163888</v>
       </c>
       <c r="E373" t="s">
         <v>90</v>
@@ -16478,7 +16478,7 @@
         <v>91</v>
       </c>
       <c r="D374" t="n">
-        <v>756.41139632</v>
+        <v>751.55539909</v>
       </c>
       <c r="E374" t="s">
         <v>92</v>
@@ -16495,7 +16495,7 @@
         <v>93</v>
       </c>
       <c r="D375" t="n">
-        <v>211.02284738</v>
+        <v>194.27664269</v>
       </c>
       <c r="E375" t="s">
         <v>94</v>
@@ -16529,7 +16529,7 @@
         <v>97</v>
       </c>
       <c r="D377" t="n">
-        <v>165.01668231</v>
+        <v>163.43255844</v>
       </c>
       <c r="E377" t="s">
         <v>98</v>
@@ -16546,7 +16546,7 @@
         <v>99</v>
       </c>
       <c r="D378" t="n">
-        <v>108.8598915</v>
+        <v>108.48199971</v>
       </c>
       <c r="E378" t="s">
         <v>100</v>
@@ -16563,7 +16563,7 @@
         <v>101</v>
       </c>
       <c r="D379" t="n">
-        <v>177.50172112</v>
+        <v>177.15417454</v>
       </c>
       <c r="E379" t="s">
         <v>102</v>
@@ -16580,7 +16580,7 @@
         <v>103</v>
       </c>
       <c r="D380" t="n">
-        <v>9373.42888669</v>
+        <v>9370.69909643</v>
       </c>
       <c r="E380" t="s">
         <v>104</v>
@@ -16597,7 +16597,7 @@
         <v>105</v>
       </c>
       <c r="D381" t="n">
-        <v>1425.09466721</v>
+        <v>1387.85276721</v>
       </c>
       <c r="E381" t="s">
         <v>106</v>
@@ -16682,7 +16682,7 @@
         <v>51</v>
       </c>
       <c r="D386" t="n">
-        <v>727.76948072</v>
+        <v>727.56864708</v>
       </c>
       <c r="E386" t="s">
         <v>52</v>
@@ -16699,7 +16699,7 @@
         <v>53</v>
       </c>
       <c r="D387" t="n">
-        <v>80.74965711</v>
+        <v>79.62504548</v>
       </c>
       <c r="E387" t="s">
         <v>54</v>
@@ -16716,7 +16716,7 @@
         <v>55</v>
       </c>
       <c r="D388" t="n">
-        <v>784.33944927</v>
+        <v>767.45736019</v>
       </c>
       <c r="E388" t="s">
         <v>56</v>
@@ -16750,7 +16750,7 @@
         <v>59</v>
       </c>
       <c r="D390" t="n">
-        <v>1176.48284956</v>
+        <v>1174.42493502</v>
       </c>
       <c r="E390" t="s">
         <v>60</v>
@@ -16767,7 +16767,7 @@
         <v>61</v>
       </c>
       <c r="D391" t="n">
-        <v>215.93285683</v>
+        <v>207.41674863</v>
       </c>
       <c r="E391" t="s">
         <v>62</v>
@@ -16784,7 +16784,7 @@
         <v>63</v>
       </c>
       <c r="D392" t="n">
-        <v>1225.29855175</v>
+        <v>1223.46321615</v>
       </c>
       <c r="E392" t="s">
         <v>64</v>
@@ -16801,7 +16801,7 @@
         <v>65</v>
       </c>
       <c r="D393" t="n">
-        <v>250.38671764</v>
+        <v>227.55727513</v>
       </c>
       <c r="E393" t="s">
         <v>66</v>
@@ -16818,7 +16818,7 @@
         <v>67</v>
       </c>
       <c r="D394" t="n">
-        <v>5391.83264831</v>
+        <v>5375.7369487</v>
       </c>
       <c r="E394" t="s">
         <v>68</v>
@@ -16835,7 +16835,7 @@
         <v>69</v>
       </c>
       <c r="D395" t="n">
-        <v>456.82789949</v>
+        <v>291.59854005</v>
       </c>
       <c r="E395" t="s">
         <v>70</v>
@@ -16852,7 +16852,7 @@
         <v>71</v>
       </c>
       <c r="D396" t="n">
-        <v>365.38124025</v>
+        <v>362.92527702</v>
       </c>
       <c r="E396" t="s">
         <v>72</v>
@@ -16869,7 +16869,7 @@
         <v>73</v>
       </c>
       <c r="D397" t="n">
-        <v>703.73457828</v>
+        <v>695.51502484</v>
       </c>
       <c r="E397" t="s">
         <v>74</v>
@@ -16886,7 +16886,7 @@
         <v>75</v>
       </c>
       <c r="D398" t="n">
-        <v>3703.43911386</v>
+        <v>3701.99300267</v>
       </c>
       <c r="E398" t="s">
         <v>76</v>
@@ -16903,7 +16903,7 @@
         <v>77</v>
       </c>
       <c r="D399" t="n">
-        <v>523.29791133</v>
+        <v>515.60082274</v>
       </c>
       <c r="E399" t="s">
         <v>78</v>
@@ -16954,7 +16954,7 @@
         <v>83</v>
       </c>
       <c r="D402" t="n">
-        <v>701.6640166</v>
+        <v>698.22458034</v>
       </c>
       <c r="E402" t="s">
         <v>84</v>
@@ -16988,7 +16988,7 @@
         <v>87</v>
       </c>
       <c r="D404" t="n">
-        <v>387.78624246</v>
+        <v>387.69583895</v>
       </c>
       <c r="E404" t="s">
         <v>88</v>
@@ -17005,7 +17005,7 @@
         <v>89</v>
       </c>
       <c r="D405" t="n">
-        <v>630.41688798</v>
+        <v>627.83886149</v>
       </c>
       <c r="E405" t="s">
         <v>90</v>
@@ -17022,7 +17022,7 @@
         <v>91</v>
       </c>
       <c r="D406" t="n">
-        <v>775.65036517</v>
+        <v>771.15102961</v>
       </c>
       <c r="E406" t="s">
         <v>92</v>
@@ -17039,7 +17039,7 @@
         <v>93</v>
       </c>
       <c r="D407" t="n">
-        <v>231.05772787</v>
+        <v>214.44217097</v>
       </c>
       <c r="E407" t="s">
         <v>94</v>
@@ -17073,7 +17073,7 @@
         <v>97</v>
       </c>
       <c r="D409" t="n">
-        <v>213.24860785</v>
+        <v>211.68929319</v>
       </c>
       <c r="E409" t="s">
         <v>98</v>
@@ -17090,7 +17090,7 @@
         <v>99</v>
       </c>
       <c r="D410" t="n">
-        <v>112.66413984</v>
+        <v>112.58775473</v>
       </c>
       <c r="E410" t="s">
         <v>100</v>
@@ -17107,7 +17107,7 @@
         <v>101</v>
       </c>
       <c r="D411" t="n">
-        <v>349.07299386</v>
+        <v>347.13712766</v>
       </c>
       <c r="E411" t="s">
         <v>102</v>
@@ -17124,7 +17124,7 @@
         <v>103</v>
       </c>
       <c r="D412" t="n">
-        <v>9847.05714594</v>
+        <v>9844.26576946</v>
       </c>
       <c r="E412" t="s">
         <v>104</v>
@@ -17226,7 +17226,7 @@
         <v>51</v>
       </c>
       <c r="D418" t="n">
-        <v>715.10871972</v>
+        <v>714.84771055</v>
       </c>
       <c r="E418" t="s">
         <v>52</v>
@@ -17243,7 +17243,7 @@
         <v>53</v>
       </c>
       <c r="D419" t="n">
-        <v>71.97837896</v>
+        <v>70.47784164</v>
       </c>
       <c r="E419" t="s">
         <v>54</v>
@@ -17260,7 +17260,7 @@
         <v>55</v>
       </c>
       <c r="D420" t="n">
-        <v>768.21648391</v>
+        <v>752.83867221</v>
       </c>
       <c r="E420" t="s">
         <v>56</v>
@@ -17294,7 +17294,7 @@
         <v>59</v>
       </c>
       <c r="D422" t="n">
-        <v>1157.73521944</v>
+        <v>1156.27251805</v>
       </c>
       <c r="E422" t="s">
         <v>60</v>
@@ -17311,7 +17311,7 @@
         <v>61</v>
       </c>
       <c r="D423" t="n">
-        <v>223.80794</v>
+        <v>214.07530231</v>
       </c>
       <c r="E423" t="s">
         <v>62</v>
@@ -17328,7 +17328,7 @@
         <v>63</v>
       </c>
       <c r="D424" t="n">
-        <v>1268.25513525</v>
+        <v>1266.07878995</v>
       </c>
       <c r="E424" t="s">
         <v>64</v>
@@ -17345,7 +17345,7 @@
         <v>65</v>
       </c>
       <c r="D425" t="n">
-        <v>286.70133017</v>
+        <v>261.83160674</v>
       </c>
       <c r="E425" t="s">
         <v>66</v>
@@ -17362,7 +17362,7 @@
         <v>67</v>
       </c>
       <c r="D426" t="n">
-        <v>5688.81017247</v>
+        <v>5671.21620339</v>
       </c>
       <c r="E426" t="s">
         <v>68</v>
@@ -17379,7 +17379,7 @@
         <v>69</v>
       </c>
       <c r="D427" t="n">
-        <v>490.51363605</v>
+        <v>314.15373828</v>
       </c>
       <c r="E427" t="s">
         <v>70</v>
@@ -17396,7 +17396,7 @@
         <v>71</v>
       </c>
       <c r="D428" t="n">
-        <v>312.49000277</v>
+        <v>309.79097771</v>
       </c>
       <c r="E428" t="s">
         <v>72</v>
@@ -17413,7 +17413,7 @@
         <v>73</v>
       </c>
       <c r="D429" t="n">
-        <v>731.74445651</v>
+        <v>722.75172715</v>
       </c>
       <c r="E429" t="s">
         <v>74</v>
@@ -17430,7 +17430,7 @@
         <v>75</v>
       </c>
       <c r="D430" t="n">
-        <v>4358.79869487</v>
+        <v>4357.20488198</v>
       </c>
       <c r="E430" t="s">
         <v>76</v>
@@ -17447,7 +17447,7 @@
         <v>77</v>
       </c>
       <c r="D431" t="n">
-        <v>760.30463019</v>
+        <v>752.12710578</v>
       </c>
       <c r="E431" t="s">
         <v>78</v>
@@ -17498,7 +17498,7 @@
         <v>83</v>
       </c>
       <c r="D434" t="n">
-        <v>718.34883904</v>
+        <v>714.99942523</v>
       </c>
       <c r="E434" t="s">
         <v>84</v>
@@ -17532,7 +17532,7 @@
         <v>87</v>
       </c>
       <c r="D436" t="n">
-        <v>365.12459702</v>
+        <v>365.08947001</v>
       </c>
       <c r="E436" t="s">
         <v>88</v>
@@ -17549,7 +17549,7 @@
         <v>89</v>
       </c>
       <c r="D437" t="n">
-        <v>644.53893368</v>
+        <v>641.41412435</v>
       </c>
       <c r="E437" t="s">
         <v>90</v>
@@ -17566,7 +17566,7 @@
         <v>91</v>
       </c>
       <c r="D438" t="n">
-        <v>797.75816749</v>
+        <v>792.71649685</v>
       </c>
       <c r="E438" t="s">
         <v>92</v>
@@ -17583,7 +17583,7 @@
         <v>93</v>
       </c>
       <c r="D439" t="n">
-        <v>215.74221406</v>
+        <v>198.09746669</v>
       </c>
       <c r="E439" t="s">
         <v>94</v>
@@ -17617,7 +17617,7 @@
         <v>97</v>
       </c>
       <c r="D441" t="n">
-        <v>364.70846998</v>
+        <v>363.0417842</v>
       </c>
       <c r="E441" t="s">
         <v>98</v>
@@ -17634,7 +17634,7 @@
         <v>99</v>
       </c>
       <c r="D442" t="n">
-        <v>122.87327737</v>
+        <v>122.32460052</v>
       </c>
       <c r="E442" t="s">
         <v>100</v>
@@ -17651,7 +17651,7 @@
         <v>101</v>
       </c>
       <c r="D443" t="n">
-        <v>374.89043461</v>
+        <v>372.73405313</v>
       </c>
       <c r="E443" t="s">
         <v>102</v>
@@ -17668,7 +17668,7 @@
         <v>103</v>
       </c>
       <c r="D444" t="n">
-        <v>9561.13329372</v>
+        <v>9558.22114981</v>
       </c>
       <c r="E444" t="s">
         <v>104</v>
@@ -17770,7 +17770,7 @@
         <v>51</v>
       </c>
       <c r="D450" t="n">
-        <v>795.49110035</v>
+        <v>795.24284491</v>
       </c>
       <c r="E450" t="s">
         <v>52</v>
@@ -17787,7 +17787,7 @@
         <v>53</v>
       </c>
       <c r="D451" t="n">
-        <v>69.76364573</v>
+        <v>68.2588827</v>
       </c>
       <c r="E451" t="s">
         <v>54</v>
@@ -17804,7 +17804,7 @@
         <v>55</v>
       </c>
       <c r="D452" t="n">
-        <v>739.46873061</v>
+        <v>721.33165342</v>
       </c>
       <c r="E452" t="s">
         <v>56</v>
@@ -17838,7 +17838,7 @@
         <v>59</v>
       </c>
       <c r="D454" t="n">
-        <v>1026.12182931</v>
+        <v>1025.38868721</v>
       </c>
       <c r="E454" t="s">
         <v>60</v>
@@ -17855,7 +17855,7 @@
         <v>61</v>
       </c>
       <c r="D455" t="n">
-        <v>215.01717597</v>
+        <v>205.31100085</v>
       </c>
       <c r="E455" t="s">
         <v>62</v>
@@ -17872,7 +17872,7 @@
         <v>63</v>
       </c>
       <c r="D456" t="n">
-        <v>1278.17042926</v>
+        <v>1275.6414859</v>
       </c>
       <c r="E456" t="s">
         <v>64</v>
@@ -17889,7 +17889,7 @@
         <v>65</v>
       </c>
       <c r="D457" t="n">
-        <v>230.44583539</v>
+        <v>202.08675481</v>
       </c>
       <c r="E457" t="s">
         <v>66</v>
@@ -17906,7 +17906,7 @@
         <v>67</v>
       </c>
       <c r="D458" t="n">
-        <v>5246.26421915</v>
+        <v>5227.56856971</v>
       </c>
       <c r="E458" t="s">
         <v>68</v>
@@ -17923,7 +17923,7 @@
         <v>69</v>
       </c>
       <c r="D459" t="n">
-        <v>515.50080011</v>
+        <v>329.97893551</v>
       </c>
       <c r="E459" t="s">
         <v>70</v>
@@ -17940,7 +17940,7 @@
         <v>71</v>
       </c>
       <c r="D460" t="n">
-        <v>403.59836051</v>
+        <v>400.32880259</v>
       </c>
       <c r="E460" t="s">
         <v>72</v>
@@ -17957,7 +17957,7 @@
         <v>73</v>
       </c>
       <c r="D461" t="n">
-        <v>489.8636138</v>
+        <v>481.566031</v>
       </c>
       <c r="E461" t="s">
         <v>74</v>
@@ -17974,7 +17974,7 @@
         <v>75</v>
       </c>
       <c r="D462" t="n">
-        <v>4317.35928662</v>
+        <v>4315.66397314</v>
       </c>
       <c r="E462" t="s">
         <v>76</v>
@@ -17991,7 +17991,7 @@
         <v>77</v>
       </c>
       <c r="D463" t="n">
-        <v>640.01399918</v>
+        <v>630.54342017</v>
       </c>
       <c r="E463" t="s">
         <v>78</v>
@@ -18042,7 +18042,7 @@
         <v>83</v>
       </c>
       <c r="D466" t="n">
-        <v>685.55934675</v>
+        <v>681.87932217</v>
       </c>
       <c r="E466" t="s">
         <v>84</v>
@@ -18076,7 +18076,7 @@
         <v>87</v>
       </c>
       <c r="D468" t="n">
-        <v>386.59251265</v>
+        <v>386.49487082</v>
       </c>
       <c r="E468" t="s">
         <v>88</v>
@@ -18093,7 +18093,7 @@
         <v>89</v>
       </c>
       <c r="D469" t="n">
-        <v>667.08096628</v>
+        <v>662.73857658</v>
       </c>
       <c r="E469" t="s">
         <v>90</v>
@@ -18110,7 +18110,7 @@
         <v>91</v>
       </c>
       <c r="D470" t="n">
-        <v>783.54213474</v>
+        <v>777.85709309</v>
       </c>
       <c r="E470" t="s">
         <v>92</v>
@@ -18127,7 +18127,7 @@
         <v>93</v>
       </c>
       <c r="D471" t="n">
-        <v>226.73297278</v>
+        <v>206.57509159</v>
       </c>
       <c r="E471" t="s">
         <v>94</v>
@@ -18161,7 +18161,7 @@
         <v>97</v>
       </c>
       <c r="D473" t="n">
-        <v>616.32522734</v>
+        <v>614.32051035</v>
       </c>
       <c r="E473" t="s">
         <v>98</v>
@@ -18178,7 +18178,7 @@
         <v>99</v>
       </c>
       <c r="D474" t="n">
-        <v>728.63252171</v>
+        <v>726.63683947</v>
       </c>
       <c r="E474" t="s">
         <v>100</v>
@@ -18195,7 +18195,7 @@
         <v>101</v>
       </c>
       <c r="D475" t="n">
-        <v>326.11312167</v>
+        <v>323.52979407</v>
       </c>
       <c r="E475" t="s">
         <v>102</v>
@@ -18212,7 +18212,7 @@
         <v>103</v>
       </c>
       <c r="D476" t="n">
-        <v>8951.51668604</v>
+        <v>8948.33344546</v>
       </c>
       <c r="E476" t="s">
         <v>104</v>
@@ -18314,7 +18314,7 @@
         <v>51</v>
       </c>
       <c r="D482" t="n">
-        <v>1121.0722073</v>
+        <v>1120.85982307</v>
       </c>
       <c r="E482" t="s">
         <v>52</v>
@@ -18331,7 +18331,7 @@
         <v>53</v>
       </c>
       <c r="D483" t="n">
-        <v>69.55234591</v>
+        <v>67.59753217</v>
       </c>
       <c r="E483" t="s">
         <v>54</v>
@@ -18348,7 +18348,7 @@
         <v>55</v>
       </c>
       <c r="D484" t="n">
-        <v>890.67455036</v>
+        <v>748.08868453</v>
       </c>
       <c r="E484" t="s">
         <v>56</v>
@@ -18399,7 +18399,7 @@
         <v>61</v>
       </c>
       <c r="D487" t="n">
-        <v>231.35040548</v>
+        <v>220.26718635</v>
       </c>
       <c r="E487" t="s">
         <v>62</v>
@@ -18416,7 +18416,7 @@
         <v>63</v>
       </c>
       <c r="D488" t="n">
-        <v>1248.96883953</v>
+        <v>1246.10064801</v>
       </c>
       <c r="E488" t="s">
         <v>64</v>
@@ -18433,7 +18433,7 @@
         <v>65</v>
       </c>
       <c r="D489" t="n">
-        <v>227.25283747</v>
+        <v>193.5030768</v>
       </c>
       <c r="E489" t="s">
         <v>66</v>
@@ -18450,7 +18450,7 @@
         <v>67</v>
       </c>
       <c r="D490" t="n">
-        <v>5584.32464811</v>
+        <v>5561.43166503</v>
       </c>
       <c r="E490" t="s">
         <v>68</v>
@@ -18467,7 +18467,7 @@
         <v>69</v>
       </c>
       <c r="D491" t="n">
-        <v>359.48150925</v>
+        <v>332.77539082</v>
       </c>
       <c r="E491" t="s">
         <v>70</v>
@@ -18484,7 +18484,7 @@
         <v>71</v>
       </c>
       <c r="D492" t="n">
-        <v>357.7134801</v>
+        <v>353.56645709</v>
       </c>
       <c r="E492" t="s">
         <v>72</v>
@@ -18501,7 +18501,7 @@
         <v>73</v>
       </c>
       <c r="D493" t="n">
-        <v>388.82994394</v>
+        <v>378.99273681</v>
       </c>
       <c r="E493" t="s">
         <v>74</v>
@@ -18518,7 +18518,7 @@
         <v>75</v>
       </c>
       <c r="D494" t="n">
-        <v>4132.94676734</v>
+        <v>4130.76370477</v>
       </c>
       <c r="E494" t="s">
         <v>76</v>
@@ -18535,7 +18535,7 @@
         <v>77</v>
       </c>
       <c r="D495" t="n">
-        <v>523.42118719</v>
+        <v>512.04082844</v>
       </c>
       <c r="E495" t="s">
         <v>78</v>
@@ -18586,7 +18586,7 @@
         <v>83</v>
       </c>
       <c r="D498" t="n">
-        <v>623.08673376</v>
+        <v>617.94338434</v>
       </c>
       <c r="E498" t="s">
         <v>84</v>
@@ -18620,7 +18620,7 @@
         <v>87</v>
       </c>
       <c r="D500" t="n">
-        <v>352.50807242</v>
+        <v>352.3685128</v>
       </c>
       <c r="E500" t="s">
         <v>88</v>
@@ -18637,7 +18637,7 @@
         <v>89</v>
       </c>
       <c r="D501" t="n">
-        <v>679.40114512</v>
+        <v>674.82821694</v>
       </c>
       <c r="E501" t="s">
         <v>90</v>
@@ -18654,7 +18654,7 @@
         <v>91</v>
       </c>
       <c r="D502" t="n">
-        <v>828.85443144</v>
+        <v>821.70246633</v>
       </c>
       <c r="E502" t="s">
         <v>92</v>
@@ -18671,7 +18671,7 @@
         <v>93</v>
       </c>
       <c r="D503" t="n">
-        <v>242.20922364</v>
+        <v>217.83015887</v>
       </c>
       <c r="E503" t="s">
         <v>94</v>
@@ -18705,7 +18705,7 @@
         <v>97</v>
       </c>
       <c r="D505" t="n">
-        <v>528.87730008</v>
+        <v>526.12937153</v>
       </c>
       <c r="E505" t="s">
         <v>98</v>
@@ -18722,7 +18722,7 @@
         <v>99</v>
       </c>
       <c r="D506" t="n">
-        <v>732.06452278</v>
+        <v>728.47878434</v>
       </c>
       <c r="E506" t="s">
         <v>100</v>
@@ -18739,7 +18739,7 @@
         <v>101</v>
       </c>
       <c r="D507" t="n">
-        <v>276.63878429</v>
+        <v>273.04734696</v>
       </c>
       <c r="E507" t="s">
         <v>102</v>
@@ -18756,7 +18756,7 @@
         <v>103</v>
       </c>
       <c r="D508" t="n">
-        <v>8722.2484437</v>
+        <v>8718.50494112</v>
       </c>
       <c r="E508" t="s">
         <v>104</v>
@@ -18773,7 +18773,7 @@
         <v>105</v>
       </c>
       <c r="D509" t="n">
-        <v>1300.71752107</v>
+        <v>1265.92942107</v>
       </c>
       <c r="E509" t="s">
         <v>106</v>
@@ -18858,7 +18858,7 @@
         <v>51</v>
       </c>
       <c r="D514" t="n">
-        <v>993.63457656</v>
+        <v>993.43509026</v>
       </c>
       <c r="E514" t="s">
         <v>52</v>
@@ -18875,7 +18875,7 @@
         <v>53</v>
       </c>
       <c r="D515" t="n">
-        <v>72.47230149</v>
+        <v>70.74631407</v>
       </c>
       <c r="E515" t="s">
         <v>54</v>
@@ -18892,7 +18892,7 @@
         <v>55</v>
       </c>
       <c r="D516" t="n">
-        <v>903.15645861</v>
+        <v>763.41695113</v>
       </c>
       <c r="E516" t="s">
         <v>56</v>
@@ -18943,7 +18943,7 @@
         <v>61</v>
       </c>
       <c r="D519" t="n">
-        <v>263.23042145</v>
+        <v>252.05536319</v>
       </c>
       <c r="E519" t="s">
         <v>62</v>
@@ -18960,7 +18960,7 @@
         <v>63</v>
       </c>
       <c r="D520" t="n">
-        <v>1351.49152346</v>
+        <v>1348.7913628</v>
       </c>
       <c r="E520" t="s">
         <v>64</v>
@@ -18994,7 +18994,7 @@
         <v>67</v>
       </c>
       <c r="D522" t="n">
-        <v>5600.14806947</v>
+        <v>5580.9319449</v>
       </c>
       <c r="E522" t="s">
         <v>68</v>
@@ -19011,7 +19011,7 @@
         <v>69</v>
       </c>
       <c r="D523" t="n">
-        <v>452.28582456</v>
+        <v>429.01735048</v>
       </c>
       <c r="E523" t="s">
         <v>70</v>
@@ -19028,7 +19028,7 @@
         <v>71</v>
       </c>
       <c r="D524" t="n">
-        <v>460.39329391</v>
+        <v>456.81015528</v>
       </c>
       <c r="E524" t="s">
         <v>72</v>
@@ -19045,7 +19045,7 @@
         <v>73</v>
       </c>
       <c r="D525" t="n">
-        <v>458.75599246</v>
+        <v>449.56808992</v>
       </c>
       <c r="E525" t="s">
         <v>74</v>
@@ -19062,7 +19062,7 @@
         <v>75</v>
       </c>
       <c r="D526" t="n">
-        <v>4285.67548851</v>
+        <v>4283.69067881</v>
       </c>
       <c r="E526" t="s">
         <v>76</v>
@@ -19079,7 +19079,7 @@
         <v>77</v>
       </c>
       <c r="D527" t="n">
-        <v>467.53463295</v>
+        <v>457.77742506</v>
       </c>
       <c r="E527" t="s">
         <v>78</v>
@@ -19130,7 +19130,7 @@
         <v>83</v>
       </c>
       <c r="D530" t="n">
-        <v>615.1804818</v>
+        <v>610.82772502</v>
       </c>
       <c r="E530" t="s">
         <v>84</v>
@@ -19164,7 +19164,7 @@
         <v>87</v>
       </c>
       <c r="D532" t="n">
-        <v>373.07615517</v>
+        <v>372.97750459</v>
       </c>
       <c r="E532" t="s">
         <v>88</v>
@@ -19181,7 +19181,7 @@
         <v>89</v>
       </c>
       <c r="D533" t="n">
-        <v>744.93095787</v>
+        <v>740.83777224</v>
       </c>
       <c r="E533" t="s">
         <v>90</v>
@@ -19198,7 +19198,7 @@
         <v>91</v>
       </c>
       <c r="D534" t="n">
-        <v>827.336456</v>
+        <v>821.54940166</v>
       </c>
       <c r="E534" t="s">
         <v>92</v>
@@ -19215,7 +19215,7 @@
         <v>93</v>
       </c>
       <c r="D535" t="n">
-        <v>270.25109715</v>
+        <v>248.64134746</v>
       </c>
       <c r="E535" t="s">
         <v>94</v>
@@ -19249,7 +19249,7 @@
         <v>97</v>
       </c>
       <c r="D537" t="n">
-        <v>737.03866399</v>
+        <v>734.45963472</v>
       </c>
       <c r="E537" t="s">
         <v>98</v>
@@ -19266,7 +19266,7 @@
         <v>99</v>
       </c>
       <c r="D538" t="n">
-        <v>724.78292305</v>
+        <v>721.51554116</v>
       </c>
       <c r="E538" t="s">
         <v>100</v>
@@ -19283,7 +19283,7 @@
         <v>101</v>
       </c>
       <c r="D539" t="n">
-        <v>262.99310401</v>
+        <v>259.37916231</v>
       </c>
       <c r="E539" t="s">
         <v>102</v>
@@ -19300,7 +19300,7 @@
         <v>103</v>
       </c>
       <c r="D540" t="n">
-        <v>8981.82443794</v>
+        <v>8978.56742806</v>
       </c>
       <c r="E540" t="s">
         <v>104</v>
@@ -19317,7 +19317,7 @@
         <v>105</v>
       </c>
       <c r="D541" t="n">
-        <v>1378.55240086</v>
+        <v>1343.76430086</v>
       </c>
       <c r="E541" t="s">
         <v>106</v>
@@ -19402,7 +19402,7 @@
         <v>51</v>
       </c>
       <c r="D546" t="n">
-        <v>1031.97555918</v>
+        <v>1031.8253707</v>
       </c>
       <c r="E546" t="s">
         <v>52</v>
@@ -19419,7 +19419,7 @@
         <v>53</v>
       </c>
       <c r="D547" t="n">
-        <v>70.00167173</v>
+        <v>68.20086352</v>
       </c>
       <c r="E547" t="s">
         <v>54</v>
@@ -19436,7 +19436,7 @@
         <v>55</v>
       </c>
       <c r="D548" t="n">
-        <v>860.49748529</v>
+        <v>719.76893857</v>
       </c>
       <c r="E548" t="s">
         <v>56</v>
@@ -19487,7 +19487,7 @@
         <v>61</v>
       </c>
       <c r="D551" t="n">
-        <v>298.10899019</v>
+        <v>289.26140414</v>
       </c>
       <c r="E551" t="s">
         <v>62</v>
@@ -19504,7 +19504,7 @@
         <v>63</v>
       </c>
       <c r="D552" t="n">
-        <v>1382.11400509</v>
+        <v>1379.52327214</v>
       </c>
       <c r="E552" t="s">
         <v>64</v>
@@ -19538,7 +19538,7 @@
         <v>67</v>
       </c>
       <c r="D554" t="n">
-        <v>5872.34861588</v>
+        <v>5854.05756369</v>
       </c>
       <c r="E554" t="s">
         <v>68</v>
@@ -19555,7 +19555,7 @@
         <v>69</v>
       </c>
       <c r="D555" t="n">
-        <v>394.8776347</v>
+        <v>372.9391994</v>
       </c>
       <c r="E555" t="s">
         <v>70</v>
@@ -19572,7 +19572,7 @@
         <v>71</v>
       </c>
       <c r="D556" t="n">
-        <v>399.09104702</v>
+        <v>395.8083649</v>
       </c>
       <c r="E556" t="s">
         <v>72</v>
@@ -19589,7 +19589,7 @@
         <v>73</v>
       </c>
       <c r="D557" t="n">
-        <v>425.83528907</v>
+        <v>416.14828086</v>
       </c>
       <c r="E557" t="s">
         <v>74</v>
@@ -19606,7 +19606,7 @@
         <v>75</v>
       </c>
       <c r="D558" t="n">
-        <v>4344.79361597</v>
+        <v>4342.81996984</v>
       </c>
       <c r="E558" t="s">
         <v>76</v>
@@ -19623,7 +19623,7 @@
         <v>77</v>
       </c>
       <c r="D559" t="n">
-        <v>626.37816171</v>
+        <v>617.42469939</v>
       </c>
       <c r="E559" t="s">
         <v>78</v>
@@ -19674,7 +19674,7 @@
         <v>83</v>
       </c>
       <c r="D562" t="n">
-        <v>562.00875151</v>
+        <v>559.76571784</v>
       </c>
       <c r="E562" t="s">
         <v>84</v>
@@ -19708,7 +19708,7 @@
         <v>87</v>
       </c>
       <c r="D564" t="n">
-        <v>396.58512546</v>
+        <v>396.516186</v>
       </c>
       <c r="E564" t="s">
         <v>88</v>
@@ -19725,7 +19725,7 @@
         <v>89</v>
       </c>
       <c r="D565" t="n">
-        <v>801.69079568</v>
+        <v>797.25168466</v>
       </c>
       <c r="E565" t="s">
         <v>90</v>
@@ -19742,7 +19742,7 @@
         <v>91</v>
       </c>
       <c r="D566" t="n">
-        <v>773.16553128</v>
+        <v>767.92566141</v>
       </c>
       <c r="E566" t="s">
         <v>92</v>
@@ -19759,7 +19759,7 @@
         <v>93</v>
       </c>
       <c r="D567" t="n">
-        <v>273.88938727</v>
+        <v>253.76873672</v>
       </c>
       <c r="E567" t="s">
         <v>94</v>
@@ -19793,7 +19793,7 @@
         <v>97</v>
       </c>
       <c r="D569" t="n">
-        <v>749.41715153</v>
+        <v>746.973393</v>
       </c>
       <c r="E569" t="s">
         <v>98</v>
@@ -19810,7 +19810,7 @@
         <v>99</v>
       </c>
       <c r="D570" t="n">
-        <v>1088.18518914</v>
+        <v>1085.31615731</v>
       </c>
       <c r="E570" t="s">
         <v>100</v>
@@ -19827,7 +19827,7 @@
         <v>101</v>
       </c>
       <c r="D571" t="n">
-        <v>242.33232605</v>
+        <v>238.82295612</v>
       </c>
       <c r="E571" t="s">
         <v>102</v>
@@ -19844,7 +19844,7 @@
         <v>103</v>
       </c>
       <c r="D572" t="n">
-        <v>8906.21577715</v>
+        <v>8903.38379337</v>
       </c>
       <c r="E572" t="s">
         <v>104</v>
@@ -19861,7 +19861,7 @@
         <v>105</v>
       </c>
       <c r="D573" t="n">
-        <v>1341.88135819</v>
+        <v>1308.47182951</v>
       </c>
       <c r="E573" t="s">
         <v>106</v>
@@ -19946,7 +19946,7 @@
         <v>51</v>
       </c>
       <c r="D578" t="n">
-        <v>710.4086324</v>
+        <v>710.25719712</v>
       </c>
       <c r="E578" t="s">
         <v>52</v>
@@ -19963,7 +19963,7 @@
         <v>53</v>
       </c>
       <c r="D579" t="n">
-        <v>55.45173116</v>
+        <v>53.53148154</v>
       </c>
       <c r="E579" t="s">
         <v>54</v>
@@ -19980,7 +19980,7 @@
         <v>55</v>
       </c>
       <c r="D580" t="n">
-        <v>718.94904093</v>
+        <v>582.73286656</v>
       </c>
       <c r="E580" t="s">
         <v>56</v>
@@ -20031,7 +20031,7 @@
         <v>61</v>
       </c>
       <c r="D583" t="n">
-        <v>162.70346392</v>
+        <v>154.15312439</v>
       </c>
       <c r="E583" t="s">
         <v>62</v>
@@ -20048,7 +20048,7 @@
         <v>63</v>
       </c>
       <c r="D584" t="n">
-        <v>951.33824847</v>
+        <v>948.67197709</v>
       </c>
       <c r="E584" t="s">
         <v>64</v>
@@ -20082,7 +20082,7 @@
         <v>67</v>
       </c>
       <c r="D586" t="n">
-        <v>5035.80047107</v>
+        <v>5016.56241315</v>
       </c>
       <c r="E586" t="s">
         <v>68</v>
@@ -20099,7 +20099,7 @@
         <v>69</v>
       </c>
       <c r="D587" t="n">
-        <v>322.37879783</v>
+        <v>298.95602602</v>
       </c>
       <c r="E587" t="s">
         <v>70</v>
@@ -20116,7 +20116,7 @@
         <v>71</v>
       </c>
       <c r="D588" t="n">
-        <v>341.00264357</v>
+        <v>337.22832492</v>
       </c>
       <c r="E588" t="s">
         <v>72</v>
@@ -20133,7 +20133,7 @@
         <v>73</v>
       </c>
       <c r="D589" t="n">
-        <v>398.69819598</v>
+        <v>388.0329985</v>
       </c>
       <c r="E589" t="s">
         <v>74</v>
@@ -20150,7 +20150,7 @@
         <v>75</v>
       </c>
       <c r="D590" t="n">
-        <v>4143.81243145</v>
+        <v>4142.29649911</v>
       </c>
       <c r="E590" t="s">
         <v>76</v>
@@ -20167,7 +20167,7 @@
         <v>77</v>
       </c>
       <c r="D591" t="n">
-        <v>802.5414628</v>
+        <v>793.06942257</v>
       </c>
       <c r="E591" t="s">
         <v>78</v>
@@ -20218,7 +20218,7 @@
         <v>83</v>
       </c>
       <c r="D594" t="n">
-        <v>365.55080634</v>
+        <v>363.12862525</v>
       </c>
       <c r="E594" t="s">
         <v>84</v>
@@ -20252,7 +20252,7 @@
         <v>87</v>
       </c>
       <c r="D596" t="n">
-        <v>387.46478177</v>
+        <v>387.33933551</v>
       </c>
       <c r="E596" t="s">
         <v>88</v>
@@ -20269,7 +20269,7 @@
         <v>89</v>
       </c>
       <c r="D597" t="n">
-        <v>690.21633206</v>
+        <v>685.33616756</v>
       </c>
       <c r="E597" t="s">
         <v>90</v>
@@ -20286,7 +20286,7 @@
         <v>91</v>
       </c>
       <c r="D598" t="n">
-        <v>726.33873068</v>
+        <v>720.50420034</v>
       </c>
       <c r="E598" t="s">
         <v>92</v>
@@ -20303,7 +20303,7 @@
         <v>93</v>
       </c>
       <c r="D599" t="n">
-        <v>194.25992423</v>
+        <v>172.61312746</v>
       </c>
       <c r="E599" t="s">
         <v>94</v>
@@ -20337,7 +20337,7 @@
         <v>97</v>
       </c>
       <c r="D601" t="n">
-        <v>90.96402408</v>
+        <v>88.25932787</v>
       </c>
       <c r="E601" t="s">
         <v>98</v>
@@ -20354,7 +20354,7 @@
         <v>99</v>
       </c>
       <c r="D602" t="n">
-        <v>672.16611062</v>
+        <v>668.89273853</v>
       </c>
       <c r="E602" t="s">
         <v>100</v>
@@ -20371,7 +20371,7 @@
         <v>101</v>
       </c>
       <c r="D603" t="n">
-        <v>206.17036713</v>
+        <v>202.264745</v>
       </c>
       <c r="E603" t="s">
         <v>102</v>
@@ -20388,7 +20388,7 @@
         <v>103</v>
       </c>
       <c r="D604" t="n">
-        <v>9334.06926366</v>
+        <v>9331.02453369</v>
       </c>
       <c r="E604" t="s">
         <v>104</v>
@@ -20490,7 +20490,7 @@
         <v>51</v>
       </c>
       <c r="D610" t="n">
-        <v>1256.19765898</v>
+        <v>1256.03383666</v>
       </c>
       <c r="E610" t="s">
         <v>52</v>
@@ -20507,7 +20507,7 @@
         <v>53</v>
       </c>
       <c r="D611" t="n">
-        <v>69.34993169</v>
+        <v>67.34505126</v>
       </c>
       <c r="E611" t="s">
         <v>54</v>
@@ -20524,7 +20524,7 @@
         <v>55</v>
       </c>
       <c r="D612" t="n">
-        <v>1140.0056983</v>
+        <v>1011.65119594</v>
       </c>
       <c r="E612" t="s">
         <v>56</v>
@@ -20575,7 +20575,7 @@
         <v>61</v>
       </c>
       <c r="D615" t="n">
-        <v>219.72807243</v>
+        <v>211.23656554</v>
       </c>
       <c r="E615" t="s">
         <v>62</v>
@@ -20592,7 +20592,7 @@
         <v>63</v>
       </c>
       <c r="D616" t="n">
-        <v>1274.50315513</v>
+        <v>1273.92187353</v>
       </c>
       <c r="E616" t="s">
         <v>64</v>
@@ -20626,7 +20626,7 @@
         <v>67</v>
       </c>
       <c r="D618" t="n">
-        <v>5382.6269387</v>
+        <v>5364.2228789</v>
       </c>
       <c r="E618" t="s">
         <v>68</v>
@@ -20643,7 +20643,7 @@
         <v>69</v>
       </c>
       <c r="D619" t="n">
-        <v>355.12242895</v>
+        <v>332.4710857</v>
       </c>
       <c r="E619" t="s">
         <v>70</v>
@@ -20660,7 +20660,7 @@
         <v>71</v>
       </c>
       <c r="D620" t="n">
-        <v>366.77336163</v>
+        <v>362.89344349</v>
       </c>
       <c r="E620" t="s">
         <v>72</v>
@@ -20677,7 +20677,7 @@
         <v>73</v>
       </c>
       <c r="D621" t="n">
-        <v>475.62125551</v>
+        <v>467.16809573</v>
       </c>
       <c r="E621" t="s">
         <v>74</v>
@@ -20694,7 +20694,7 @@
         <v>75</v>
       </c>
       <c r="D622" t="n">
-        <v>3999.06785252</v>
+        <v>3998.47484085</v>
       </c>
       <c r="E622" t="s">
         <v>76</v>
@@ -20711,7 +20711,7 @@
         <v>77</v>
       </c>
       <c r="D623" t="n">
-        <v>911.14201308</v>
+        <v>902.45494928</v>
       </c>
       <c r="E623" t="s">
         <v>78</v>
@@ -20762,7 +20762,7 @@
         <v>83</v>
       </c>
       <c r="D626" t="n">
-        <v>695.38896721</v>
+        <v>692.51995606</v>
       </c>
       <c r="E626" t="s">
         <v>84</v>
@@ -20796,7 +20796,7 @@
         <v>87</v>
       </c>
       <c r="D628" t="n">
-        <v>421.1659758</v>
+        <v>421.1031135</v>
       </c>
       <c r="E628" t="s">
         <v>88</v>
@@ -20813,7 +20813,7 @@
         <v>89</v>
       </c>
       <c r="D629" t="n">
-        <v>729.86369084</v>
+        <v>724.95195624</v>
       </c>
       <c r="E629" t="s">
         <v>90</v>
@@ -20830,7 +20830,7 @@
         <v>91</v>
       </c>
       <c r="D630" t="n">
-        <v>816.88487432</v>
+        <v>811.64309166</v>
       </c>
       <c r="E630" t="s">
         <v>92</v>
@@ -20847,7 +20847,7 @@
         <v>93</v>
       </c>
       <c r="D631" t="n">
-        <v>163.59396272</v>
+        <v>143.2112153</v>
       </c>
       <c r="E631" t="s">
         <v>94</v>
@@ -20881,7 +20881,7 @@
         <v>97</v>
       </c>
       <c r="D633" t="n">
-        <v>253.79314911</v>
+        <v>251.17108061</v>
       </c>
       <c r="E633" t="s">
         <v>98</v>
@@ -20898,7 +20898,7 @@
         <v>99</v>
       </c>
       <c r="D634" t="n">
-        <v>734.41738071</v>
+        <v>731.09201365</v>
       </c>
       <c r="E634" t="s">
         <v>100</v>
@@ -20915,7 +20915,7 @@
         <v>101</v>
       </c>
       <c r="D635" t="n">
-        <v>211.69194276</v>
+        <v>208.04630477</v>
       </c>
       <c r="E635" t="s">
         <v>102</v>
@@ -20932,7 +20932,7 @@
         <v>103</v>
       </c>
       <c r="D636" t="n">
-        <v>9758.33682932</v>
+        <v>9755.43148418</v>
       </c>
       <c r="E636" t="s">
         <v>104</v>
@@ -21034,7 +21034,7 @@
         <v>51</v>
       </c>
       <c r="D642" t="n">
-        <v>953.84799884</v>
+        <v>953.71745852</v>
       </c>
       <c r="E642" t="s">
         <v>52</v>
@@ -21051,7 +21051,7 @@
         <v>53</v>
       </c>
       <c r="D643" t="n">
-        <v>84.16378461</v>
+        <v>82.31311241</v>
       </c>
       <c r="E643" t="s">
         <v>54</v>
@@ -21068,7 +21068,7 @@
         <v>55</v>
       </c>
       <c r="D644" t="n">
-        <v>998.29086796</v>
+        <v>866.6022961</v>
       </c>
       <c r="E644" t="s">
         <v>56</v>
@@ -21119,7 +21119,7 @@
         <v>61</v>
       </c>
       <c r="D647" t="n">
-        <v>241.39979723</v>
+        <v>234.273757</v>
       </c>
       <c r="E647" t="s">
         <v>62</v>
@@ -21136,7 +21136,7 @@
         <v>63</v>
       </c>
       <c r="D648" t="n">
-        <v>1945.24027946</v>
+        <v>1943.42924859</v>
       </c>
       <c r="E648" t="s">
         <v>64</v>
@@ -21170,7 +21170,7 @@
         <v>67</v>
       </c>
       <c r="D650" t="n">
-        <v>5405.12171086</v>
+        <v>5388.71136689</v>
       </c>
       <c r="E650" t="s">
         <v>68</v>
@@ -21187,7 +21187,7 @@
         <v>69</v>
       </c>
       <c r="D651" t="n">
-        <v>380.88491196</v>
+        <v>362.88348984</v>
       </c>
       <c r="E651" t="s">
         <v>70</v>
@@ -21204,7 +21204,7 @@
         <v>71</v>
       </c>
       <c r="D652" t="n">
-        <v>372.7731038</v>
+        <v>369.43617896</v>
       </c>
       <c r="E652" t="s">
         <v>72</v>
@@ -21221,7 +21221,7 @@
         <v>73</v>
       </c>
       <c r="D653" t="n">
-        <v>507.39491336</v>
+        <v>500.11810509</v>
       </c>
       <c r="E653" t="s">
         <v>74</v>
@@ -21238,7 +21238,7 @@
         <v>75</v>
       </c>
       <c r="D654" t="n">
-        <v>3389.16385154</v>
+        <v>3388.60350327</v>
       </c>
       <c r="E654" t="s">
         <v>76</v>
@@ -21255,7 +21255,7 @@
         <v>77</v>
       </c>
       <c r="D655" t="n">
-        <v>892.80320801</v>
+        <v>885.62869314</v>
       </c>
       <c r="E655" t="s">
         <v>78</v>
@@ -21306,7 +21306,7 @@
         <v>83</v>
       </c>
       <c r="D658" t="n">
-        <v>564.088911</v>
+        <v>562.1501973</v>
       </c>
       <c r="E658" t="s">
         <v>84</v>
@@ -21340,7 +21340,7 @@
         <v>87</v>
       </c>
       <c r="D660" t="n">
-        <v>429.78640634</v>
+        <v>429.73669426</v>
       </c>
       <c r="E660" t="s">
         <v>88</v>
@@ -21357,7 +21357,7 @@
         <v>89</v>
       </c>
       <c r="D661" t="n">
-        <v>833.92872308</v>
+        <v>829.78242556</v>
       </c>
       <c r="E661" t="s">
         <v>90</v>
@@ -21374,7 +21374,7 @@
         <v>91</v>
       </c>
       <c r="D662" t="n">
-        <v>889.37394453</v>
+        <v>884.97925869</v>
       </c>
       <c r="E662" t="s">
         <v>92</v>
@@ -21391,7 +21391,7 @@
         <v>93</v>
       </c>
       <c r="D663" t="n">
-        <v>153.62153342</v>
+        <v>135.7676662</v>
       </c>
       <c r="E663" t="s">
         <v>94</v>
@@ -21425,7 +21425,7 @@
         <v>97</v>
       </c>
       <c r="D665" t="n">
-        <v>222.21376053</v>
+        <v>220.02390661</v>
       </c>
       <c r="E665" t="s">
         <v>98</v>
@@ -21442,7 +21442,7 @@
         <v>99</v>
       </c>
       <c r="D666" t="n">
-        <v>932.08728375</v>
+        <v>930.68730735</v>
       </c>
       <c r="E666" t="s">
         <v>100</v>
@@ -21459,7 +21459,7 @@
         <v>101</v>
       </c>
       <c r="D667" t="n">
-        <v>211.52727471</v>
+        <v>208.44776291</v>
       </c>
       <c r="E667" t="s">
         <v>102</v>
@@ -21476,7 +21476,7 @@
         <v>103</v>
       </c>
       <c r="D668" t="n">
-        <v>10458.74731037</v>
+        <v>10456.33940345</v>
       </c>
       <c r="E668" t="s">
         <v>104</v>
@@ -21493,7 +21493,7 @@
         <v>105</v>
       </c>
       <c r="D669" t="n">
-        <v>1127.05319697</v>
+        <v>1096.44819697</v>
       </c>
       <c r="E669" t="s">
         <v>106</v>
@@ -21578,7 +21578,7 @@
         <v>51</v>
       </c>
       <c r="D674" t="n">
-        <v>987.61025364</v>
+        <v>987.48675022</v>
       </c>
       <c r="E674" t="s">
         <v>52</v>
@@ -21595,7 +21595,7 @@
         <v>53</v>
       </c>
       <c r="D675" t="n">
-        <v>75.06594466</v>
+        <v>73.17271366</v>
       </c>
       <c r="E675" t="s">
         <v>54</v>
@@ -21612,7 +21612,7 @@
         <v>55</v>
       </c>
       <c r="D676" t="n">
-        <v>936.26239795</v>
+        <v>810.13672095</v>
       </c>
       <c r="E676" t="s">
         <v>56</v>
@@ -21663,7 +21663,7 @@
         <v>61</v>
       </c>
       <c r="D679" t="n">
-        <v>268.04656143</v>
+        <v>259.57976082</v>
       </c>
       <c r="E679" t="s">
         <v>62</v>
@@ -21680,7 +21680,7 @@
         <v>63</v>
       </c>
       <c r="D680" t="n">
-        <v>1578.8738285</v>
+        <v>1576.91077313</v>
       </c>
       <c r="E680" t="s">
         <v>64</v>
@@ -21714,7 +21714,7 @@
         <v>67</v>
       </c>
       <c r="D682" t="n">
-        <v>5593.04678799</v>
+        <v>5576.34823894</v>
       </c>
       <c r="E682" t="s">
         <v>68</v>
@@ -21731,7 +21731,7 @@
         <v>69</v>
       </c>
       <c r="D683" t="n">
-        <v>462.76304456</v>
+        <v>444.40291859</v>
       </c>
       <c r="E683" t="s">
         <v>70</v>
@@ -21748,7 +21748,7 @@
         <v>71</v>
       </c>
       <c r="D684" t="n">
-        <v>429.457377</v>
+        <v>425.58053321</v>
       </c>
       <c r="E684" t="s">
         <v>72</v>
@@ -21765,7 +21765,7 @@
         <v>73</v>
       </c>
       <c r="D685" t="n">
-        <v>582.81683659</v>
+        <v>575.23792119</v>
       </c>
       <c r="E685" t="s">
         <v>74</v>
@@ -21782,7 +21782,7 @@
         <v>75</v>
       </c>
       <c r="D686" t="n">
-        <v>3232.44735203</v>
+        <v>3229.2626875</v>
       </c>
       <c r="E686" t="s">
         <v>76</v>
@@ -21799,7 +21799,7 @@
         <v>77</v>
       </c>
       <c r="D687" t="n">
-        <v>827.29743897</v>
+        <v>819.88462977</v>
       </c>
       <c r="E687" t="s">
         <v>78</v>
@@ -21850,7 +21850,7 @@
         <v>83</v>
       </c>
       <c r="D690" t="n">
-        <v>558.80062116</v>
+        <v>557.78621937</v>
       </c>
       <c r="E690" t="s">
         <v>84</v>
@@ -21884,7 +21884,7 @@
         <v>87</v>
       </c>
       <c r="D692" t="n">
-        <v>415.32178691</v>
+        <v>415.21404908</v>
       </c>
       <c r="E692" t="s">
         <v>88</v>
@@ -21901,7 +21901,7 @@
         <v>89</v>
       </c>
       <c r="D693" t="n">
-        <v>914.97561717</v>
+        <v>910.55070957</v>
       </c>
       <c r="E693" t="s">
         <v>90</v>
@@ -21918,7 +21918,7 @@
         <v>91</v>
       </c>
       <c r="D694" t="n">
-        <v>1001.65090523</v>
+        <v>996.92617064</v>
       </c>
       <c r="E694" t="s">
         <v>92</v>
@@ -21935,7 +21935,7 @@
         <v>93</v>
       </c>
       <c r="D695" t="n">
-        <v>157.31619704</v>
+        <v>139.11342898</v>
       </c>
       <c r="E695" t="s">
         <v>94</v>
@@ -21969,7 +21969,7 @@
         <v>97</v>
       </c>
       <c r="D697" t="n">
-        <v>254.8699971</v>
+        <v>252.58758182</v>
       </c>
       <c r="E697" t="s">
         <v>98</v>
@@ -21986,7 +21986,7 @@
         <v>99</v>
       </c>
       <c r="D698" t="n">
-        <v>808.05292582</v>
+        <v>806.75271981</v>
       </c>
       <c r="E698" t="s">
         <v>100</v>
@@ -22003,7 +22003,7 @@
         <v>101</v>
       </c>
       <c r="D699" t="n">
-        <v>221.6517917</v>
+        <v>218.23567513</v>
       </c>
       <c r="E699" t="s">
         <v>102</v>
@@ -22020,7 +22020,7 @@
         <v>103</v>
       </c>
       <c r="D700" t="n">
-        <v>10637.69480407</v>
+        <v>10634.96582261</v>
       </c>
       <c r="E700" t="s">
         <v>104</v>
@@ -22122,7 +22122,7 @@
         <v>51</v>
       </c>
       <c r="D706" t="n">
-        <v>1064.84687413</v>
+        <v>1064.75238719</v>
       </c>
       <c r="E706" t="s">
         <v>52</v>
@@ -22139,7 +22139,7 @@
         <v>53</v>
       </c>
       <c r="D707" t="n">
-        <v>71.28949677</v>
+        <v>69.84306326</v>
       </c>
       <c r="E707" t="s">
         <v>54</v>
@@ -22156,7 +22156,7 @@
         <v>55</v>
       </c>
       <c r="D708" t="n">
-        <v>1190.46651677</v>
+        <v>1028.93321677</v>
       </c>
       <c r="E708" t="s">
         <v>56</v>
@@ -22207,7 +22207,7 @@
         <v>61</v>
       </c>
       <c r="D711" t="n">
-        <v>262.65736596</v>
+        <v>255.19159777</v>
       </c>
       <c r="E711" t="s">
         <v>62</v>
@@ -22224,7 +22224,7 @@
         <v>63</v>
       </c>
       <c r="D712" t="n">
-        <v>1534.12504123</v>
+        <v>1532.44467102</v>
       </c>
       <c r="E712" t="s">
         <v>64</v>
@@ -22258,7 +22258,7 @@
         <v>67</v>
       </c>
       <c r="D714" t="n">
-        <v>5963.63419623</v>
+        <v>5948.55155704</v>
       </c>
       <c r="E714" t="s">
         <v>68</v>
@@ -22275,7 +22275,7 @@
         <v>69</v>
       </c>
       <c r="D715" t="n">
-        <v>315.07045367</v>
+        <v>298.36113681</v>
       </c>
       <c r="E715" t="s">
         <v>70</v>
@@ -22292,7 +22292,7 @@
         <v>71</v>
       </c>
       <c r="D716" t="n">
-        <v>551.33177043</v>
+        <v>547.76390366</v>
       </c>
       <c r="E716" t="s">
         <v>72</v>
@@ -22309,7 +22309,7 @@
         <v>73</v>
       </c>
       <c r="D717" t="n">
-        <v>1108.21171055</v>
+        <v>1101.17549043</v>
       </c>
       <c r="E717" t="s">
         <v>74</v>
@@ -22326,7 +22326,7 @@
         <v>75</v>
       </c>
       <c r="D718" t="n">
-        <v>3850.54609513</v>
+        <v>3848.77808908</v>
       </c>
       <c r="E718" t="s">
         <v>76</v>
@@ -22343,7 +22343,7 @@
         <v>77</v>
       </c>
       <c r="D719" t="n">
-        <v>703.89878068</v>
+        <v>697.34950301</v>
       </c>
       <c r="E719" t="s">
         <v>78</v>
@@ -22394,7 +22394,7 @@
         <v>83</v>
       </c>
       <c r="D722" t="n">
-        <v>604.9385891</v>
+        <v>603.65482901</v>
       </c>
       <c r="E722" t="s">
         <v>84</v>
@@ -22428,7 +22428,7 @@
         <v>87</v>
       </c>
       <c r="D724" t="n">
-        <v>476.93785978</v>
+        <v>476.83113653</v>
       </c>
       <c r="E724" t="s">
         <v>88</v>
@@ -22445,7 +22445,7 @@
         <v>89</v>
       </c>
       <c r="D725" t="n">
-        <v>878.53076751</v>
+        <v>874.87983829</v>
       </c>
       <c r="E725" t="s">
         <v>90</v>
@@ -22462,7 +22462,7 @@
         <v>91</v>
       </c>
       <c r="D726" t="n">
-        <v>1475.7376508</v>
+        <v>1471.08643554</v>
       </c>
       <c r="E726" t="s">
         <v>92</v>
@@ -22479,7 +22479,7 @@
         <v>93</v>
       </c>
       <c r="D727" t="n">
-        <v>153.7742</v>
+        <v>137.61577143</v>
       </c>
       <c r="E727" t="s">
         <v>94</v>
@@ -22513,7 +22513,7 @@
         <v>97</v>
       </c>
       <c r="D729" t="n">
-        <v>305.93522986</v>
+        <v>303.64793271</v>
       </c>
       <c r="E729" t="s">
         <v>98</v>
@@ -22530,7 +22530,7 @@
         <v>99</v>
       </c>
       <c r="D730" t="n">
-        <v>632.99439366</v>
+        <v>631.76221153</v>
       </c>
       <c r="E730" t="s">
         <v>100</v>
@@ -22547,7 +22547,7 @@
         <v>101</v>
       </c>
       <c r="D731" t="n">
-        <v>202.64005538</v>
+        <v>199.39103397</v>
       </c>
       <c r="E731" t="s">
         <v>102</v>
@@ -22666,7 +22666,7 @@
         <v>51</v>
       </c>
       <c r="D738" t="n">
-        <v>1143.37217704</v>
+        <v>1143.21459784</v>
       </c>
       <c r="E738" t="s">
         <v>52</v>
@@ -22683,7 +22683,7 @@
         <v>53</v>
       </c>
       <c r="D739" t="n">
-        <v>66.06448521</v>
+        <v>64.27823297</v>
       </c>
       <c r="E739" t="s">
         <v>54</v>
@@ -22700,7 +22700,7 @@
         <v>55</v>
       </c>
       <c r="D740" t="n">
-        <v>1362.854337</v>
+        <v>1191.345937</v>
       </c>
       <c r="E740" t="s">
         <v>56</v>
@@ -22751,7 +22751,7 @@
         <v>61</v>
       </c>
       <c r="D743" t="n">
-        <v>273.35346255</v>
+        <v>264.27668343</v>
       </c>
       <c r="E743" t="s">
         <v>62</v>
@@ -22768,7 +22768,7 @@
         <v>63</v>
       </c>
       <c r="D744" t="n">
-        <v>1610.55407717</v>
+        <v>1609.27926429</v>
       </c>
       <c r="E744" t="s">
         <v>64</v>
@@ -22802,7 +22802,7 @@
         <v>67</v>
       </c>
       <c r="D746" t="n">
-        <v>6516.02097841</v>
+        <v>6497.94538874</v>
       </c>
       <c r="E746" t="s">
         <v>68</v>
@@ -22819,7 +22819,7 @@
         <v>69</v>
       </c>
       <c r="D747" t="n">
-        <v>356.06108125</v>
+        <v>336.01322583</v>
       </c>
       <c r="E747" t="s">
         <v>70</v>
@@ -22836,7 +22836,7 @@
         <v>71</v>
       </c>
       <c r="D748" t="n">
-        <v>934.59427914</v>
+        <v>930.79423772</v>
       </c>
       <c r="E748" t="s">
         <v>72</v>
@@ -22853,7 +22853,7 @@
         <v>73</v>
       </c>
       <c r="D749" t="n">
-        <v>1659.52471309</v>
+        <v>1651.32363355</v>
       </c>
       <c r="E749" t="s">
         <v>74</v>
@@ -22870,7 +22870,7 @@
         <v>75</v>
       </c>
       <c r="D750" t="n">
-        <v>5098.22163704</v>
+        <v>5093.95381565</v>
       </c>
       <c r="E750" t="s">
         <v>76</v>
@@ -22887,7 +22887,7 @@
         <v>77</v>
       </c>
       <c r="D751" t="n">
-        <v>658.92265417</v>
+        <v>650.80064151</v>
       </c>
       <c r="E751" t="s">
         <v>78</v>
@@ -22938,7 +22938,7 @@
         <v>83</v>
       </c>
       <c r="D754" t="n">
-        <v>575.04671701</v>
+        <v>574.20202283</v>
       </c>
       <c r="E754" t="s">
         <v>84</v>
@@ -22972,7 +22972,7 @@
         <v>87</v>
       </c>
       <c r="D756" t="n">
-        <v>517.7267073</v>
+        <v>517.4723999</v>
       </c>
       <c r="E756" t="s">
         <v>88</v>
@@ -22989,7 +22989,7 @@
         <v>89</v>
       </c>
       <c r="D757" t="n">
-        <v>924.96559192</v>
+        <v>921.00517898</v>
       </c>
       <c r="E757" t="s">
         <v>90</v>
@@ -23006,7 +23006,7 @@
         <v>91</v>
       </c>
       <c r="D758" t="n">
-        <v>1994.9761647</v>
+        <v>1989.23450699</v>
       </c>
       <c r="E758" t="s">
         <v>92</v>
@@ -23023,7 +23023,7 @@
         <v>93</v>
       </c>
       <c r="D759" t="n">
-        <v>157.88885675</v>
+        <v>139.09449332</v>
       </c>
       <c r="E759" t="s">
         <v>94</v>
@@ -23057,7 +23057,7 @@
         <v>97</v>
       </c>
       <c r="D761" t="n">
-        <v>451.71068356</v>
+        <v>448.80246154</v>
       </c>
       <c r="E761" t="s">
         <v>98</v>
@@ -23074,7 +23074,7 @@
         <v>99</v>
       </c>
       <c r="D762" t="n">
-        <v>873.24015017</v>
+        <v>871.75383717</v>
       </c>
       <c r="E762" t="s">
         <v>100</v>
@@ -23091,7 +23091,7 @@
         <v>101</v>
       </c>
       <c r="D763" t="n">
-        <v>238.93826964</v>
+        <v>235.17351802</v>
       </c>
       <c r="E763" t="s">
         <v>102</v>
@@ -23210,7 +23210,7 @@
         <v>51</v>
       </c>
       <c r="D770" t="n">
-        <v>1174.10826943</v>
+        <v>1173.95765426</v>
       </c>
       <c r="E770" t="s">
         <v>52</v>
@@ -23227,7 +23227,7 @@
         <v>53</v>
       </c>
       <c r="D771" t="n">
-        <v>88.81932408</v>
+        <v>87.01517476</v>
       </c>
       <c r="E771" t="s">
         <v>54</v>
@@ -23244,7 +23244,7 @@
         <v>55</v>
       </c>
       <c r="D772" t="n">
-        <v>1289.54050622</v>
+        <v>1158.54710622</v>
       </c>
       <c r="E772" t="s">
         <v>56</v>
@@ -23295,7 +23295,7 @@
         <v>61</v>
       </c>
       <c r="D775" t="n">
-        <v>273.02502529</v>
+        <v>263.30879181</v>
       </c>
       <c r="E775" t="s">
         <v>62</v>
@@ -23346,7 +23346,7 @@
         <v>67</v>
       </c>
       <c r="D778" t="n">
-        <v>7241.17503255</v>
+        <v>7223.24849626</v>
       </c>
       <c r="E778" t="s">
         <v>68</v>
@@ -23363,7 +23363,7 @@
         <v>69</v>
       </c>
       <c r="D779" t="n">
-        <v>337.75671674</v>
+        <v>316.95038572</v>
       </c>
       <c r="E779" t="s">
         <v>70</v>
@@ -23380,7 +23380,7 @@
         <v>71</v>
       </c>
       <c r="D780" t="n">
-        <v>829.07657044</v>
+        <v>825.37135594</v>
       </c>
       <c r="E780" t="s">
         <v>72</v>
@@ -23397,7 +23397,7 @@
         <v>73</v>
       </c>
       <c r="D781" t="n">
-        <v>2185.3108986</v>
+        <v>2176.68773621</v>
       </c>
       <c r="E781" t="s">
         <v>74</v>
@@ -23414,7 +23414,7 @@
         <v>75</v>
       </c>
       <c r="D782" t="n">
-        <v>4076.80149663</v>
+        <v>4074.1084105</v>
       </c>
       <c r="E782" t="s">
         <v>76</v>
@@ -23431,7 +23431,7 @@
         <v>77</v>
       </c>
       <c r="D783" t="n">
-        <v>637.25541</v>
+        <v>629.14831567</v>
       </c>
       <c r="E783" t="s">
         <v>78</v>
@@ -23482,7 +23482,7 @@
         <v>83</v>
       </c>
       <c r="D786" t="n">
-        <v>593.91469811</v>
+        <v>593.54269524</v>
       </c>
       <c r="E786" t="s">
         <v>84</v>
@@ -23516,7 +23516,7 @@
         <v>87</v>
       </c>
       <c r="D788" t="n">
-        <v>505.84419492</v>
+        <v>505.68969246</v>
       </c>
       <c r="E788" t="s">
         <v>88</v>
@@ -23533,7 +23533,7 @@
         <v>89</v>
       </c>
       <c r="D789" t="n">
-        <v>969.00743052</v>
+        <v>964.92209385</v>
       </c>
       <c r="E789" t="s">
         <v>90</v>
@@ -23550,7 +23550,7 @@
         <v>91</v>
       </c>
       <c r="D790" t="n">
-        <v>1709.1710537</v>
+        <v>1704.02665866</v>
       </c>
       <c r="E790" t="s">
         <v>92</v>
@@ -23567,7 +23567,7 @@
         <v>93</v>
       </c>
       <c r="D791" t="n">
-        <v>170.40165346</v>
+        <v>150.69634903</v>
       </c>
       <c r="E791" t="s">
         <v>94</v>
@@ -23601,7 +23601,7 @@
         <v>97</v>
       </c>
       <c r="D793" t="n">
-        <v>421.18977548</v>
+        <v>418.12837786</v>
       </c>
       <c r="E793" t="s">
         <v>98</v>
@@ -23618,7 +23618,7 @@
         <v>99</v>
       </c>
       <c r="D794" t="n">
-        <v>798.95301671</v>
+        <v>797.40437439</v>
       </c>
       <c r="E794" t="s">
         <v>100</v>
@@ -23635,7 +23635,7 @@
         <v>101</v>
       </c>
       <c r="D795" t="n">
-        <v>235.64674893</v>
+        <v>231.6949611</v>
       </c>
       <c r="E795" t="s">
         <v>102</v>
@@ -23835,7 +23835,7 @@
         <v>7.2</v>
       </c>
       <c r="C6" t="n">
-        <v>11.13</v>
+        <v>11.16</v>
       </c>
       <c r="D6" t="n">
         <v>2.62</v>
@@ -23849,7 +23849,7 @@
         <v>4.1</v>
       </c>
       <c r="C7" t="n">
-        <v>-20.03</v>
+        <v>-20.02</v>
       </c>
       <c r="D7" t="n">
         <v>3.1</v>
@@ -23877,7 +23877,7 @@
         <v>2.2</v>
       </c>
       <c r="C9" t="n">
-        <v>31.68</v>
+        <v>31.81</v>
       </c>
       <c r="D9" t="n">
         <v>7.18</v>
@@ -23919,7 +23919,7 @@
         <v>1.7</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.33</v>
+        <v>-14.34</v>
       </c>
       <c r="D12" t="n">
         <v>5.96</v>
@@ -23933,7 +23933,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.73</v>
+        <v>-6.66</v>
       </c>
       <c r="D13" t="n">
         <v>1.89</v>
@@ -23950,63 +23950,63 @@
         <v>-25.67</v>
       </c>
       <c r="D14" t="n">
-        <v>4.74</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" t="n">
         <v>1.3</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.38</v>
+        <v>-3.9</v>
       </c>
       <c r="D15" t="n">
-        <v>4.75</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B16" t="n">
         <v>1.3</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.9</v>
+        <v>4.36</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B17" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C17" t="n">
-        <v>4.36</v>
+        <v>2.69</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.13</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
         <v>1.2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.69</v>
+        <v>-2.75</v>
       </c>
       <c r="D18" t="n">
-        <v>7.33</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="19">
@@ -24017,10 +24017,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="D19" t="n">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="20">
@@ -24031,7 +24031,7 @@
         <v>0.8</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.29</v>
+        <v>-11.33</v>
       </c>
       <c r="D20" t="n">
         <v>7.14</v>
@@ -24045,7 +24045,7 @@
         <v>0.8</v>
       </c>
       <c r="C21" t="n">
-        <v>-8.51</v>
+        <v>-8.53</v>
       </c>
       <c r="D21" t="n">
         <v>2.96</v>
@@ -24059,10 +24059,10 @@
         <v>0.6</v>
       </c>
       <c r="C22" t="n">
-        <v>-3.29</v>
+        <v>-3.33</v>
       </c>
       <c r="D22" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="23">
@@ -24073,10 +24073,10 @@
         <v>0.6</v>
       </c>
       <c r="C23" t="n">
-        <v>3.28</v>
+        <v>3.37</v>
       </c>
       <c r="D23" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="24">
@@ -24087,7 +24087,7 @@
         <v>0.5</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.3</v>
+        <v>-2.28</v>
       </c>
       <c r="D24" t="n">
         <v>2.77</v>
@@ -24115,10 +24115,10 @@
         <v>0.4</v>
       </c>
       <c r="C26" t="n">
-        <v>-6.76</v>
+        <v>-6.83</v>
       </c>
       <c r="D26" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="27">
@@ -24129,10 +24129,10 @@
         <v>0.3</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.12</v>
+        <v>-0.37</v>
       </c>
       <c r="D27" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="28">
@@ -24146,7 +24146,7 @@
         <v>-16.09</v>
       </c>
       <c r="D28" t="n">
-        <v>1.88</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="29">
@@ -24157,10 +24157,10 @@
         <v>0.3</v>
       </c>
       <c r="C29" t="n">
-        <v>-5.14</v>
+        <v>-5.67</v>
       </c>
       <c r="D29" t="n">
-        <v>4.8</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="30">
@@ -24171,10 +24171,10 @@
         <v>0.2</v>
       </c>
       <c r="C30" t="n">
-        <v>7.93</v>
+        <v>8.34</v>
       </c>
       <c r="D30" t="n">
-        <v>0.54</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="31">
@@ -24185,10 +24185,10 @@
         <v>0.2</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.38</v>
+        <v>-1.48</v>
       </c>
       <c r="D31" t="n">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="32">
@@ -24199,10 +24199,10 @@
         <v>0.1</v>
       </c>
       <c r="C32" t="n">
-        <v>34.44</v>
+        <v>35.37</v>
       </c>
       <c r="D32" t="n">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="33">
@@ -25143,7 +25143,7 @@
         <v>2.69</v>
       </c>
       <c r="C2" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>5.94</v>
@@ -25155,7 +25155,7 @@
         <v>3.97</v>
       </c>
       <c r="G2" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="3">
@@ -25163,22 +25163,22 @@
         <v>54</v>
       </c>
       <c r="B3" t="n">
-        <v>34.44</v>
+        <v>35.37</v>
       </c>
       <c r="C3" t="n">
         <v>11.62</v>
       </c>
       <c r="D3" t="n">
-        <v>5.77</v>
+        <v>5.95</v>
       </c>
       <c r="E3" t="n">
-        <v>5.07</v>
+        <v>5.26</v>
       </c>
       <c r="F3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G3" t="n">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4">
@@ -25186,22 +25186,22 @@
         <v>94</v>
       </c>
       <c r="B4" t="n">
-        <v>7.93</v>
+        <v>8.34</v>
       </c>
       <c r="C4" t="n">
-        <v>5.27</v>
+        <v>4.64</v>
       </c>
       <c r="D4" t="n">
         <v>2.7</v>
       </c>
       <c r="E4" t="n">
-        <v>0.82</v>
+        <v>1.02</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.82</v>
+        <v>-3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.54</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -25209,22 +25209,22 @@
         <v>98</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.76</v>
+        <v>-6.83</v>
       </c>
       <c r="C5" t="n">
-        <v>17.33</v>
+        <v>17.35</v>
       </c>
       <c r="D5" t="n">
-        <v>18.23</v>
+        <v>18.29</v>
       </c>
       <c r="E5" t="n">
-        <v>10.66</v>
+        <v>10.73</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.74</v>
+        <v>-3.77</v>
       </c>
       <c r="G5" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="6">
@@ -25232,22 +25232,22 @@
         <v>56</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.38</v>
+        <v>-2.75</v>
       </c>
       <c r="C6" t="n">
-        <v>4.08</v>
+        <v>6.11</v>
       </c>
       <c r="D6" t="n">
-        <v>11.26</v>
+        <v>12.66</v>
       </c>
       <c r="E6" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="F6" t="n">
-        <v>5.72</v>
+        <v>4.85</v>
       </c>
       <c r="G6" t="n">
-        <v>4.75</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="7">
@@ -25290,10 +25290,10 @@
         <v>16.78</v>
       </c>
       <c r="F8" t="n">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="G8" t="n">
-        <v>4.74</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="9">
@@ -25301,19 +25301,19 @@
         <v>64</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.73</v>
+        <v>-6.66</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.05</v>
+        <v>-0.99</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.65</v>
+        <v>-1.61</v>
       </c>
       <c r="E9" t="n">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="F9" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G9" t="n">
         <v>1.89</v>
@@ -25347,22 +25347,22 @@
         <v>90</v>
       </c>
       <c r="B11" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="C11" t="n">
         <v>5.02</v>
       </c>
       <c r="D11" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="E11" t="n">
-        <v>5.83</v>
+        <v>5.89</v>
       </c>
       <c r="F11" t="n">
-        <v>3.8</v>
+        <v>3.83</v>
       </c>
       <c r="G11" t="n">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="12">
@@ -25382,10 +25382,10 @@
         <v>7.21</v>
       </c>
       <c r="F12" t="n">
-        <v>1.77</v>
+        <v>3.12</v>
       </c>
       <c r="G12" t="n">
-        <v>1.88</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="13">
@@ -25393,22 +25393,22 @@
         <v>78</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.29</v>
+        <v>-3.33</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.85</v>
+        <v>-5.02</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.33</v>
+        <v>-8.45</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.9</v>
+        <v>-6.96</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="G13" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="14">
@@ -25416,22 +25416,22 @@
         <v>70</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.14</v>
+        <v>-5.67</v>
       </c>
       <c r="C14" t="n">
-        <v>3.54</v>
+        <v>3.07</v>
       </c>
       <c r="D14" t="n">
-        <v>-9.96</v>
+        <v>-10.65</v>
       </c>
       <c r="E14" t="n">
-        <v>-1</v>
+        <v>-0.95</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.14</v>
+        <v>-0.4</v>
       </c>
       <c r="G14" t="n">
-        <v>4.8</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="15">
@@ -25439,19 +25439,19 @@
         <v>68</v>
       </c>
       <c r="B15" t="n">
-        <v>11.13</v>
+        <v>11.16</v>
       </c>
       <c r="C15" t="n">
         <v>10.19</v>
       </c>
       <c r="D15" t="n">
-        <v>8.99</v>
+        <v>9.01</v>
       </c>
       <c r="E15" t="n">
-        <v>6.11</v>
+        <v>6.13</v>
       </c>
       <c r="F15" t="n">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="G15" t="n">
         <v>2.62</v>
@@ -25508,22 +25508,22 @@
         <v>84</v>
       </c>
       <c r="B18" t="n">
-        <v>3.28</v>
+        <v>3.37</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.92</v>
+        <v>-0.84</v>
       </c>
       <c r="D18" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="E18" t="n">
-        <v>-3.11</v>
+        <v>-3.04</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.42</v>
+        <v>-1.38</v>
       </c>
       <c r="G18" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="19">
@@ -25531,10 +25531,10 @@
         <v>88</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.3</v>
+        <v>-2.28</v>
       </c>
       <c r="C19" t="n">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="D19" t="n">
         <v>6.79</v>
@@ -25543,7 +25543,7 @@
         <v>3.73</v>
       </c>
       <c r="F19" t="n">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="G19" t="n">
         <v>2.77</v>
@@ -25560,10 +25560,10 @@
         <v>8.79</v>
       </c>
       <c r="D20" t="n">
-        <v>7.94</v>
+        <v>7.95</v>
       </c>
       <c r="E20" t="n">
-        <v>6.51</v>
+        <v>6.52</v>
       </c>
       <c r="F20" t="n">
         <v>4.1</v>
@@ -25646,22 +25646,22 @@
         <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.12</v>
+        <v>-0.37</v>
       </c>
       <c r="C24" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="D24" t="n">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="E24" t="n">
-        <v>4.44</v>
+        <v>4.51</v>
       </c>
       <c r="F24" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="25">
@@ -25669,22 +25669,22 @@
         <v>102</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.38</v>
+        <v>-1.48</v>
       </c>
       <c r="C25" t="n">
-        <v>7.84</v>
+        <v>7.8</v>
       </c>
       <c r="D25" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="E25" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.2</v>
+        <v>-3.28</v>
       </c>
       <c r="G25" t="n">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="26">
@@ -25692,16 +25692,16 @@
         <v>100</v>
       </c>
       <c r="B26" t="n">
-        <v>-8.51</v>
+        <v>-8.53</v>
       </c>
       <c r="C26" t="n">
         <v>12.35</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.38</v>
+        <v>-0.39</v>
       </c>
       <c r="E26" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="F26" t="n">
         <v>0.93</v>
@@ -25715,19 +25715,19 @@
         <v>72</v>
       </c>
       <c r="B27" t="n">
-        <v>-11.29</v>
+        <v>-11.33</v>
       </c>
       <c r="C27" t="n">
-        <v>22.63</v>
+        <v>22.75</v>
       </c>
       <c r="D27" t="n">
-        <v>24.52</v>
+        <v>24.71</v>
       </c>
       <c r="E27" t="n">
-        <v>17.72</v>
+        <v>17.86</v>
       </c>
       <c r="F27" t="n">
-        <v>7.46</v>
+        <v>7.5</v>
       </c>
       <c r="G27" t="n">
         <v>7.14</v>
@@ -25738,19 +25738,19 @@
         <v>92</v>
       </c>
       <c r="B28" t="n">
-        <v>-14.33</v>
+        <v>-14.34</v>
       </c>
       <c r="C28" t="n">
-        <v>7.62</v>
+        <v>7.63</v>
       </c>
       <c r="D28" t="n">
-        <v>19.5</v>
+        <v>19.57</v>
       </c>
       <c r="E28" t="n">
-        <v>15.91</v>
+        <v>15.99</v>
       </c>
       <c r="F28" t="n">
-        <v>8.11</v>
+        <v>8.16</v>
       </c>
       <c r="G28" t="n">
         <v>5.96</v>
@@ -25761,19 +25761,19 @@
         <v>74</v>
       </c>
       <c r="B29" t="n">
-        <v>31.68</v>
+        <v>31.81</v>
       </c>
       <c r="C29" t="n">
-        <v>40.43</v>
+        <v>40.59</v>
       </c>
       <c r="D29" t="n">
-        <v>55.36</v>
+        <v>55.83</v>
       </c>
       <c r="E29" t="n">
-        <v>35.66</v>
+        <v>36.04</v>
       </c>
       <c r="F29" t="n">
-        <v>16.13</v>
+        <v>16.28</v>
       </c>
       <c r="G29" t="n">
         <v>7.18</v>
@@ -25830,16 +25830,16 @@
         <v>76</v>
       </c>
       <c r="B32" t="n">
-        <v>-20.03</v>
+        <v>-20.02</v>
       </c>
       <c r="C32" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="D32" t="n">
-        <v>8.04</v>
+        <v>8.05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="F32" t="n">
         <v>-0.57</v>
@@ -25904,13 +25904,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>31074.93117041</v>
+        <v>30963.20149178</v>
       </c>
       <c r="C2" t="n">
         <v>31143.48044745</v>
       </c>
       <c r="D2" t="n">
-        <v>68.5492770399978</v>
+        <v>180.278955669997</v>
       </c>
     </row>
     <row r="3">
@@ -25918,13 +25918,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>33656.98120157</v>
+        <v>33536.96614417</v>
       </c>
       <c r="C3" t="n">
         <v>32901.57920235</v>
       </c>
       <c r="D3" t="n">
-        <v>-755.401999219997</v>
+        <v>-635.386941819997</v>
       </c>
     </row>
     <row r="4">
@@ -25932,13 +25932,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>37131.84772452</v>
+        <v>37003.04624048</v>
       </c>
       <c r="C4" t="n">
         <v>35713.73757837</v>
       </c>
       <c r="D4" t="n">
-        <v>-1418.11014615</v>
+        <v>-1289.30866211</v>
       </c>
     </row>
     <row r="5">
@@ -25946,13 +25946,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>40129.39970622</v>
+        <v>39982.12549676</v>
       </c>
       <c r="C5" t="n">
         <v>36997.24132993</v>
       </c>
       <c r="D5" t="n">
-        <v>-3132.15837629</v>
+        <v>-2984.88416683</v>
       </c>
     </row>
     <row r="6">
@@ -25960,13 +25960,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>41821.37806592</v>
+        <v>41640.33246373</v>
       </c>
       <c r="C6" t="n">
         <v>36660.02114532</v>
       </c>
       <c r="D6" t="n">
-        <v>-5161.3569206</v>
+        <v>-4980.31131841001</v>
       </c>
     </row>
     <row r="7">
@@ -25974,13 +25974,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>42349.84227103</v>
+        <v>42153.57101706</v>
       </c>
       <c r="C7" t="n">
         <v>36630.10564562</v>
       </c>
       <c r="D7" t="n">
-        <v>-5719.73662541</v>
+        <v>-5523.46537144</v>
       </c>
     </row>
     <row r="8">
@@ -25988,13 +25988,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>52708.24193444</v>
+        <v>52494.25675102</v>
       </c>
       <c r="C8" t="n">
         <v>40667.30948617</v>
       </c>
       <c r="D8" t="n">
-        <v>-12040.93244827</v>
+        <v>-11826.94726485</v>
       </c>
     </row>
     <row r="9">
@@ -26002,13 +26002,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>45023.95801466</v>
+        <v>44740.35799238</v>
       </c>
       <c r="C9" t="n">
         <v>42673.10967511</v>
       </c>
       <c r="D9" t="n">
-        <v>-2350.84833954999</v>
+        <v>-2067.24831726999</v>
       </c>
     </row>
     <row r="10">
@@ -26016,13 +26016,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>47654.9556043</v>
+        <v>47348.33320378</v>
       </c>
       <c r="C10" t="n">
         <v>44499.19407709</v>
       </c>
       <c r="D10" t="n">
-        <v>-3155.76152721</v>
+        <v>-2849.13912669</v>
       </c>
     </row>
     <row r="11">
@@ -26030,13 +26030,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>50665.45623414</v>
+        <v>50358.45972502</v>
       </c>
       <c r="C11" t="n">
         <v>47815.0369744</v>
       </c>
       <c r="D11" t="n">
-        <v>-2850.41925974</v>
+        <v>-2543.42275062</v>
       </c>
     </row>
     <row r="12">
@@ -26044,13 +26044,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>53676.54313629</v>
+        <v>53359.67231093</v>
       </c>
       <c r="C12" t="n">
         <v>49983.12749968</v>
       </c>
       <c r="D12" t="n">
-        <v>-3693.41563661</v>
+        <v>-3376.54481125</v>
       </c>
     </row>
     <row r="13">
@@ -26058,13 +26058,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>56250.32543649</v>
+        <v>55930.93361828</v>
       </c>
       <c r="C13" t="n">
         <v>49622.89770848</v>
       </c>
       <c r="D13" t="n">
-        <v>-6627.42772801</v>
+        <v>-6308.0359098</v>
       </c>
     </row>
     <row r="14">
@@ -26072,13 +26072,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>58740.61378757</v>
+        <v>58452.4379757</v>
       </c>
       <c r="C14" t="n">
         <v>49569.42700998</v>
       </c>
       <c r="D14" t="n">
-        <v>-9171.18677759</v>
+        <v>-8883.01096572</v>
       </c>
     </row>
     <row r="15">
@@ -26086,13 +26086,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>59882.79976902</v>
+        <v>59575.52238827</v>
       </c>
       <c r="C15" t="n">
         <v>54456.50159576</v>
       </c>
       <c r="D15" t="n">
-        <v>-5426.29817326</v>
+        <v>-5119.02079251</v>
       </c>
     </row>
     <row r="16">
@@ -26100,13 +26100,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>59310.05406306</v>
+        <v>58978.15613263</v>
       </c>
       <c r="C16" t="n">
         <v>55974.7369706</v>
       </c>
       <c r="D16" t="n">
-        <v>-3335.31709246</v>
+        <v>-3003.41916203</v>
       </c>
     </row>
     <row r="17">
@@ -26114,13 +26114,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>62744.67250039</v>
+        <v>62385.2279383</v>
       </c>
       <c r="C17" t="n">
         <v>60527.31500408</v>
       </c>
       <c r="D17" t="n">
-        <v>-2217.35749631</v>
+        <v>-1857.91293422</v>
       </c>
     </row>
     <row r="18">
@@ -26128,13 +26128,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>66273.96626014</v>
+        <v>65967.98154285</v>
       </c>
       <c r="C18" t="n">
         <v>62360.28547411</v>
       </c>
       <c r="D18" t="n">
-        <v>-3913.68078603</v>
+        <v>-3607.69606874</v>
       </c>
     </row>
     <row r="19">
@@ -26142,13 +26142,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>69278.70788159</v>
+        <v>68983.28845559</v>
       </c>
       <c r="C19" t="n">
         <v>63729.29184297</v>
       </c>
       <c r="D19" t="n">
-        <v>-5549.41603862</v>
+        <v>-5253.99661261999</v>
       </c>
     </row>
     <row r="20">
@@ -26156,13 +26156,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>63302.21548647</v>
+        <v>63036.7851585</v>
       </c>
       <c r="C20" t="n">
         <v>61625.11681802</v>
       </c>
       <c r="D20" t="n">
-        <v>-1677.09866845</v>
+        <v>-1411.66834048001</v>
       </c>
     </row>
     <row r="21">
@@ -26170,13 +26170,13 @@
         <v>2017</v>
       </c>
       <c r="B21" t="n">
-        <v>71117.81797831</v>
+        <v>70869.58687145</v>
       </c>
       <c r="C21" t="n">
         <v>61002.40364361</v>
       </c>
       <c r="D21" t="n">
-        <v>-10115.4143347</v>
+        <v>-9867.18322784</v>
       </c>
     </row>
     <row r="22">
@@ -26184,13 +26184,13 @@
         <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>74366.38237313</v>
+        <v>74102.94962991</v>
       </c>
       <c r="C22" t="n">
         <v>70127.30015943</v>
       </c>
       <c r="D22" t="n">
-        <v>-4239.08221370001</v>
+        <v>-3975.64947048</v>
       </c>
     </row>
     <row r="23">
@@ -26198,13 +26198,13 @@
         <v>2019</v>
       </c>
       <c r="B23" t="n">
-        <v>73759.68853209</v>
+        <v>73525.80208756</v>
       </c>
       <c r="C23" t="n">
         <v>71807.43647994</v>
       </c>
       <c r="D23" t="n">
-        <v>-1952.25205215</v>
+        <v>-1718.36560762</v>
       </c>
     </row>
     <row r="24">
@@ -26212,13 +26212,13 @@
         <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>80600.32134554</v>
+        <v>80344.76810295</v>
       </c>
       <c r="C24" t="n">
         <v>77792.43860974</v>
       </c>
       <c r="D24" t="n">
-        <v>-2807.8827358</v>
+        <v>-2552.32949321</v>
       </c>
     </row>
     <row r="25">
@@ -26226,13 +26226,13 @@
         <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>92264.08323436</v>
+        <v>91980.01028852</v>
       </c>
       <c r="C25" t="n">
         <v>91391.90240034</v>
       </c>
       <c r="D25" t="n">
-        <v>-872.180834019993</v>
+        <v>-588.107888180006</v>
       </c>
     </row>
     <row r="26">
@@ -26240,13 +26240,13 @@
         <v>2022</v>
       </c>
       <c r="B26" t="n">
-        <v>99019.88037471</v>
+        <v>98777.33118284</v>
       </c>
       <c r="C26" t="n">
         <v>112958.25872834</v>
       </c>
       <c r="D26" t="n">
-        <v>13938.37835363</v>
+        <v>14180.9275455</v>
       </c>
     </row>
   </sheetData>

--- a/summary_file_FY2022.xlsx
+++ b/summary_file_FY2022.xlsx
@@ -164,7 +164,7 @@
     <t xml:space="preserve">FEDERAL TRANSPORTATION</t>
   </si>
   <si>
-    <t xml:space="preserve">78new</t>
+    <t xml:space="preserve">78</t>
   </si>
   <si>
     <t xml:space="preserve">ALL OTHER SOURCES</t>
@@ -11803,7 +11803,7 @@
         <v>53</v>
       </c>
       <c r="D99" t="n">
-        <v>112.95363308</v>
+        <v>113.95363308</v>
       </c>
       <c r="E99" t="s">
         <v>54</v>
@@ -12347,7 +12347,7 @@
         <v>53</v>
       </c>
       <c r="D131" t="n">
-        <v>113.70769596</v>
+        <v>114.70769596</v>
       </c>
       <c r="E131" t="s">
         <v>54</v>
@@ -12891,7 +12891,7 @@
         <v>53</v>
       </c>
       <c r="D163" t="n">
-        <v>88.70322203</v>
+        <v>89.70322203</v>
       </c>
       <c r="E163" t="s">
         <v>54</v>
@@ -13435,7 +13435,7 @@
         <v>53</v>
       </c>
       <c r="D195" t="n">
-        <v>80.44436889</v>
+        <v>81.37536889</v>
       </c>
       <c r="E195" t="s">
         <v>54</v>
@@ -21986,7 +21986,7 @@
         <v>99</v>
       </c>
       <c r="D698" t="n">
-        <v>806.75271981</v>
+        <v>837.92226326</v>
       </c>
       <c r="E698" t="s">
         <v>100</v>
@@ -22445,7 +22445,7 @@
         <v>89</v>
       </c>
       <c r="D725" t="n">
-        <v>874.87983829</v>
+        <v>877.8218872</v>
       </c>
       <c r="E725" t="s">
         <v>90</v>
@@ -22530,7 +22530,7 @@
         <v>99</v>
       </c>
       <c r="D730" t="n">
-        <v>631.76221153</v>
+        <v>976.11821092</v>
       </c>
       <c r="E730" t="s">
         <v>100</v>
@@ -22989,7 +22989,7 @@
         <v>89</v>
       </c>
       <c r="D757" t="n">
-        <v>921.00517898</v>
+        <v>940.91139473</v>
       </c>
       <c r="E757" t="s">
         <v>90</v>
@@ -23074,7 +23074,7 @@
         <v>99</v>
       </c>
       <c r="D762" t="n">
-        <v>871.75383717</v>
+        <v>1104.16721195</v>
       </c>
       <c r="E762" t="s">
         <v>100</v>
@@ -23533,7 +23533,7 @@
         <v>89</v>
       </c>
       <c r="D789" t="n">
-        <v>964.92209385</v>
+        <v>973.93069469</v>
       </c>
       <c r="E789" t="s">
         <v>90</v>
@@ -23618,7 +23618,7 @@
         <v>99</v>
       </c>
       <c r="D794" t="n">
-        <v>797.40437439</v>
+        <v>1069.83202206</v>
       </c>
       <c r="E794" t="s">
         <v>100</v>
@@ -23720,7 +23720,7 @@
         <v>111</v>
       </c>
       <c r="D800" t="n">
-        <v>10185.84798814</v>
+        <v>10485.84798814</v>
       </c>
       <c r="E800" t="s">
         <v>112</v>
@@ -23801,30 +23801,30 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="C4" t="n">
-        <v>44.14</v>
+        <v>10.41</v>
       </c>
       <c r="D4" t="n">
-        <v>4.65</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B5" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="C5" t="n">
-        <v>7.25</v>
+        <v>44.14</v>
       </c>
       <c r="D5" t="n">
-        <v>10.56</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="6">
@@ -24011,44 +24011,44 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="C19" t="n">
-        <v>4.77</v>
+        <v>-3.11</v>
       </c>
       <c r="D19" t="n">
-        <v>3.75</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.33</v>
+        <v>3.51</v>
       </c>
       <c r="D20" t="n">
-        <v>7.14</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B21" t="n">
         <v>0.8</v>
       </c>
       <c r="C21" t="n">
-        <v>-8.53</v>
+        <v>-11.33</v>
       </c>
       <c r="D21" t="n">
-        <v>2.96</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="22">
@@ -25347,22 +25347,22 @@
         <v>90</v>
       </c>
       <c r="B11" t="n">
-        <v>4.77</v>
+        <v>3.51</v>
       </c>
       <c r="C11" t="n">
-        <v>5.02</v>
+        <v>5.33</v>
       </c>
       <c r="D11" t="n">
-        <v>1.95</v>
+        <v>2.27</v>
       </c>
       <c r="E11" t="n">
-        <v>5.89</v>
+        <v>6.08</v>
       </c>
       <c r="F11" t="n">
-        <v>3.83</v>
+        <v>3.92</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="12">
@@ -25692,22 +25692,22 @@
         <v>100</v>
       </c>
       <c r="B26" t="n">
-        <v>-8.53</v>
+        <v>-3.11</v>
       </c>
       <c r="C26" t="n">
-        <v>12.35</v>
+        <v>4.69</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.39</v>
+        <v>8.49</v>
       </c>
       <c r="E26" t="n">
-        <v>1.75</v>
+        <v>7.91</v>
       </c>
       <c r="F26" t="n">
-        <v>0.93</v>
+        <v>3.94</v>
       </c>
       <c r="G26" t="n">
-        <v>2.96</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="27">
@@ -25807,22 +25807,22 @@
         <v>112</v>
       </c>
       <c r="B31" t="n">
-        <v>7.25</v>
+        <v>10.41</v>
       </c>
       <c r="C31" t="n">
-        <v>6.89</v>
+        <v>8.45</v>
       </c>
       <c r="D31" t="n">
-        <v>7.86</v>
+        <v>8.91</v>
       </c>
       <c r="E31" t="n">
-        <v>6.96</v>
+        <v>7.58</v>
       </c>
       <c r="F31" t="n">
-        <v>8.48</v>
+        <v>8.8</v>
       </c>
       <c r="G31" t="n">
-        <v>10.56</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="32">
@@ -25901,170 +25901,170 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1998</v>
+        <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>30963.20149178</v>
+        <v>99358.76743135</v>
       </c>
       <c r="C2" t="n">
-        <v>31143.48044745</v>
+        <v>112958.25872834</v>
       </c>
       <c r="D2" t="n">
-        <v>180.278955669997</v>
+        <v>13599.49129699</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1999</v>
+        <v>2021</v>
       </c>
       <c r="B3" t="n">
-        <v>33536.96614417</v>
+        <v>92232.32987905</v>
       </c>
       <c r="C3" t="n">
-        <v>32901.57920235</v>
+        <v>91391.90240034</v>
       </c>
       <c r="D3" t="n">
-        <v>-635.386941819997</v>
+        <v>-840.42747871</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="B4" t="n">
-        <v>37003.04624048</v>
+        <v>80692.06615125</v>
       </c>
       <c r="C4" t="n">
-        <v>35713.73757837</v>
+        <v>77792.43860974</v>
       </c>
       <c r="D4" t="n">
-        <v>-1289.30866211</v>
+        <v>-2899.62754151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>39982.12549676</v>
+        <v>73556.97163101</v>
       </c>
       <c r="C5" t="n">
-        <v>36997.24132993</v>
+        <v>71807.43647994</v>
       </c>
       <c r="D5" t="n">
-        <v>-2984.88416683</v>
+        <v>-1749.53515107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2002</v>
+        <v>2018</v>
       </c>
       <c r="B6" t="n">
-        <v>41640.33246373</v>
+        <v>74102.94962991</v>
       </c>
       <c r="C6" t="n">
-        <v>36660.02114532</v>
+        <v>70127.30015943</v>
       </c>
       <c r="D6" t="n">
-        <v>-4980.31131841001</v>
+        <v>-3975.64947048</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>42153.57101706</v>
+        <v>70869.58687145</v>
       </c>
       <c r="C7" t="n">
-        <v>36630.10564562</v>
+        <v>61002.40364361</v>
       </c>
       <c r="D7" t="n">
-        <v>-5523.46537144</v>
+        <v>-9867.18322784</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="B8" t="n">
-        <v>52494.25675102</v>
+        <v>63036.7851585</v>
       </c>
       <c r="C8" t="n">
-        <v>40667.30948617</v>
+        <v>61625.11681802</v>
       </c>
       <c r="D8" t="n">
-        <v>-11826.94726485</v>
+        <v>-1411.66834048001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="B9" t="n">
-        <v>44740.35799238</v>
+        <v>68983.28845559</v>
       </c>
       <c r="C9" t="n">
-        <v>42673.10967511</v>
+        <v>63729.29184297</v>
       </c>
       <c r="D9" t="n">
-        <v>-2067.24831726999</v>
+        <v>-5253.99661261999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="B10" t="n">
-        <v>47348.33320378</v>
+        <v>65967.98154285</v>
       </c>
       <c r="C10" t="n">
-        <v>44499.19407709</v>
+        <v>62360.28547411</v>
       </c>
       <c r="D10" t="n">
-        <v>-2849.13912669</v>
+        <v>-3607.69606874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="B11" t="n">
-        <v>50358.45972502</v>
+        <v>62385.2279383</v>
       </c>
       <c r="C11" t="n">
-        <v>47815.0369744</v>
+        <v>60527.31500408</v>
       </c>
       <c r="D11" t="n">
-        <v>-2543.42275062</v>
+        <v>-1857.91293422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B12" t="n">
-        <v>53359.67231093</v>
+        <v>58978.15613263</v>
       </c>
       <c r="C12" t="n">
-        <v>49983.12749968</v>
+        <v>55974.7369706</v>
       </c>
       <c r="D12" t="n">
-        <v>-3376.54481125</v>
+        <v>-3003.41916203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B13" t="n">
-        <v>55930.93361828</v>
+        <v>59575.52238827</v>
       </c>
       <c r="C13" t="n">
-        <v>49622.89770848</v>
+        <v>54456.50159576</v>
       </c>
       <c r="D13" t="n">
-        <v>-6308.0359098</v>
+        <v>-5119.02079251</v>
       </c>
     </row>
     <row r="14">
@@ -26083,170 +26083,170 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B15" t="n">
-        <v>59575.52238827</v>
+        <v>55930.93361828</v>
       </c>
       <c r="C15" t="n">
-        <v>54456.50159576</v>
+        <v>49622.89770848</v>
       </c>
       <c r="D15" t="n">
-        <v>-5119.02079251</v>
+        <v>-6308.0359098</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B16" t="n">
-        <v>58978.15613263</v>
+        <v>53359.67231093</v>
       </c>
       <c r="C16" t="n">
-        <v>55974.7369706</v>
+        <v>49983.12749968</v>
       </c>
       <c r="D16" t="n">
-        <v>-3003.41916203</v>
+        <v>-3376.54481125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="B17" t="n">
-        <v>62385.2279383</v>
+        <v>50358.45972502</v>
       </c>
       <c r="C17" t="n">
-        <v>60527.31500408</v>
+        <v>47815.0369744</v>
       </c>
       <c r="D17" t="n">
-        <v>-1857.91293422</v>
+        <v>-2543.42275062</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>65967.98154285</v>
+        <v>47348.33320378</v>
       </c>
       <c r="C18" t="n">
-        <v>62360.28547411</v>
+        <v>44499.19407709</v>
       </c>
       <c r="D18" t="n">
-        <v>-3607.69606874</v>
+        <v>-2849.13912669</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>68983.28845559</v>
+        <v>44740.35799238</v>
       </c>
       <c r="C19" t="n">
-        <v>63729.29184297</v>
+        <v>42673.10967511</v>
       </c>
       <c r="D19" t="n">
-        <v>-5253.99661261999</v>
+        <v>-2067.24831726999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="B20" t="n">
-        <v>63036.7851585</v>
+        <v>52495.18775102</v>
       </c>
       <c r="C20" t="n">
-        <v>61625.11681802</v>
+        <v>40667.30948617</v>
       </c>
       <c r="D20" t="n">
-        <v>-1411.66834048001</v>
+        <v>-11827.87826485</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="B21" t="n">
-        <v>70869.58687145</v>
+        <v>42154.57101706</v>
       </c>
       <c r="C21" t="n">
-        <v>61002.40364361</v>
+        <v>36630.10564562</v>
       </c>
       <c r="D21" t="n">
-        <v>-9867.18322784</v>
+        <v>-5524.46537144</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="B22" t="n">
-        <v>74102.94962991</v>
+        <v>41641.33246373</v>
       </c>
       <c r="C22" t="n">
-        <v>70127.30015943</v>
+        <v>36660.02114532</v>
       </c>
       <c r="D22" t="n">
-        <v>-3975.64947048</v>
+        <v>-4981.31131841001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>73525.80208756</v>
+        <v>39983.12549676</v>
       </c>
       <c r="C23" t="n">
-        <v>71807.43647994</v>
+        <v>36997.24132993</v>
       </c>
       <c r="D23" t="n">
-        <v>-1718.36560762</v>
+        <v>-2985.88416683</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2020</v>
+        <v>2000</v>
       </c>
       <c r="B24" t="n">
-        <v>80344.76810295</v>
+        <v>37003.04624048</v>
       </c>
       <c r="C24" t="n">
-        <v>77792.43860974</v>
+        <v>35713.73757837</v>
       </c>
       <c r="D24" t="n">
-        <v>-2552.32949321</v>
+        <v>-1289.30866211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2021</v>
+        <v>1999</v>
       </c>
       <c r="B25" t="n">
-        <v>91980.01028852</v>
+        <v>33536.96614417</v>
       </c>
       <c r="C25" t="n">
-        <v>91391.90240034</v>
+        <v>32901.57920235</v>
       </c>
       <c r="D25" t="n">
-        <v>-588.107888180006</v>
+        <v>-635.386941819997</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2022</v>
+        <v>1998</v>
       </c>
       <c r="B26" t="n">
-        <v>98777.33118284</v>
+        <v>30963.20149178</v>
       </c>
       <c r="C26" t="n">
-        <v>112958.25872834</v>
+        <v>31143.48044745</v>
       </c>
       <c r="D26" t="n">
-        <v>14180.9275455</v>
+        <v>180.278955669997</v>
       </c>
     </row>
   </sheetData>
